--- a/daily_df.xlsx
+++ b/daily_df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC833"/>
+  <dimension ref="A1:AD833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,11 @@
           <t>epu_trend_7_g365</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -669,6 +674,9 @@
       <c r="AC2" t="n">
         <v>10.15728718305662</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-1.38465574312997</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -758,6 +766,9 @@
       <c r="AC3" t="n">
         <v>10.18450321575857</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-1.303124223450695</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -847,6 +858,9 @@
       <c r="AC4" t="n">
         <v>10.21130751450803</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-1.321939189530528</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -936,6 +950,9 @@
       <c r="AC5" t="n">
         <v>10.23771349001352</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-1.310112639423205</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1025,6 +1042,9 @@
       <c r="AC6" t="n">
         <v>10.26373352678194</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-1.280008693695472</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1114,6 +1134,9 @@
       <c r="AC7" t="n">
         <v>10.28937970490407</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-1.209452570896099</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1203,6 +1226,9 @@
       <c r="AC8" t="n">
         <v>10.31466539767867</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-1.192989475576246</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1292,6 +1318,9 @@
       <c r="AC9" t="n">
         <v>10.33960533244349</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-1.208668613976106</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1381,6 +1410,9 @@
       <c r="AC10" t="n">
         <v>10.36421521979316</v>
       </c>
+      <c r="AD10" t="n">
+        <v>-1.38069116099172</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1470,6 +1502,9 @@
       <c r="AC11" t="n">
         <v>10.38850997406793</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-1.352804693409111</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1559,6 +1594,9 @@
       <c r="AC12" t="n">
         <v>10.41250451289464</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-1.265785475289884</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1648,6 +1686,9 @@
       <c r="AC13" t="n">
         <v>10.43621475856729</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-1.31909454584941</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1737,6 +1778,9 @@
       <c r="AC14" t="n">
         <v>10.45965660878083</v>
       </c>
+      <c r="AD14" t="n">
+        <v>-1.369267788728964</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1826,6 +1870,9 @@
       <c r="AC15" t="n">
         <v>10.48284481879767</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-1.463342619128128</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1915,6 +1962,9 @@
       <c r="AC16" t="n">
         <v>10.5057941783173</v>
       </c>
+      <c r="AD16" t="n">
+        <v>-1.455816632696194</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2004,6 +2054,9 @@
       <c r="AC17" t="n">
         <v>10.52851963260149</v>
       </c>
+      <c r="AD17" t="n">
+        <v>-1.603200533654884</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2093,6 +2146,9 @@
       <c r="AC18" t="n">
         <v>10.5510350426028</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-1.683164139494173</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2182,6 +2238,9 @@
       <c r="AC19" t="n">
         <v>10.57335360499079</v>
       </c>
+      <c r="AD19" t="n">
+        <v>-1.667708988785739</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2271,6 +2330,9 @@
       <c r="AC20" t="n">
         <v>10.59548816404898</v>
       </c>
+      <c r="AD20" t="n">
+        <v>-1.664886743873764</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2360,6 +2422,9 @@
       <c r="AC21" t="n">
         <v>10.61745212199112</v>
       </c>
+      <c r="AD21" t="n">
+        <v>-1.573947741154573</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2449,6 +2514,9 @@
       <c r="AC22" t="n">
         <v>10.63926081823083</v>
       </c>
+      <c r="AD22" t="n">
+        <v>-1.717568648897295</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2538,6 +2606,9 @@
       <c r="AC23" t="n">
         <v>10.6609306937484</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-1.587275008794454</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2627,6 +2698,9 @@
       <c r="AC24" t="n">
         <v>10.68247971588838</v>
       </c>
+      <c r="AD24" t="n">
+        <v>-1.582571267274496</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2716,6 +2790,9 @@
       <c r="AC25" t="n">
         <v>10.70392686579797</v>
       </c>
+      <c r="AD25" t="n">
+        <v>-1.657831131593826</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2805,6 +2882,9 @@
       <c r="AC26" t="n">
         <v>10.72529175186718</v>
       </c>
+      <c r="AD26" t="n">
+        <v>-1.618946868362173</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2894,6 +2974,9 @@
       <c r="AC27" t="n">
         <v>10.74659451543394</v>
       </c>
+      <c r="AD27" t="n">
+        <v>-1.690286948081538</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2983,6 +3066,9 @@
       <c r="AC28" t="n">
         <v>10.76785669740357</v>
       </c>
+      <c r="AD28" t="n">
+        <v>-1.356321300164508</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3072,6 +3158,9 @@
       <c r="AC29" t="n">
         <v>10.78909986697707</v>
       </c>
+      <c r="AD29" t="n">
+        <v>-1.37513626624434</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -3161,6 +3250,9 @@
       <c r="AC30" t="n">
         <v>10.81034507910481</v>
       </c>
+      <c r="AD30" t="n">
+        <v>-1.384543749284257</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -3250,6 +3342,9 @@
       <c r="AC31" t="n">
         <v>10.83161480461137</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-1.448932744313018</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -3339,6 +3434,9 @@
       <c r="AC32" t="n">
         <v>10.85293201787609</v>
       </c>
+      <c r="AD32" t="n">
+        <v>-1.426981950553213</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -3428,6 +3526,9 @@
       <c r="AC33" t="n">
         <v>10.87431976442876</v>
       </c>
+      <c r="AD33" t="n">
+        <v>-1.42384612287324</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -3517,6 +3618,9 @@
       <c r="AC34" t="n">
         <v>10.89579976521689</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-1.329771292474077</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -3606,6 +3710,9 @@
       <c r="AC35" t="n">
         <v>10.91739218973262</v>
       </c>
+      <c r="AD35" t="n">
+        <v>-1.339805941049988</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -3695,6 +3802,9 @@
       <c r="AC36" t="n">
         <v>10.93911738666067</v>
       </c>
+      <c r="AD36" t="n">
+        <v>-1.297472267370364</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3784,6 +3894,9 @@
       <c r="AC37" t="n">
         <v>10.96099489394497</v>
       </c>
+      <c r="AD37" t="n">
+        <v>-1.397191587593478</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3873,6 +3986,9 @@
       <c r="AC38" t="n">
         <v>10.98304397850058</v>
       </c>
+      <c r="AD38" t="n">
+        <v>-1.39013597531354</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3962,6 +4078,9 @@
       <c r="AC39" t="n">
         <v>11.00528408936052</v>
       </c>
+      <c r="AD39" t="n">
+        <v>-1.275678264994559</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -4051,6 +4170,9 @@
       <c r="AC40" t="n">
         <v>11.02773453551209</v>
       </c>
+      <c r="AD40" t="n">
+        <v>-1.154724911624205</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -4140,6 +4262,9 @@
       <c r="AC41" t="n">
         <v>11.05041498240245</v>
       </c>
+      <c r="AD41" t="n">
+        <v>-1.123209843440486</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -4229,6 +4354,9 @@
       <c r="AC42" t="n">
         <v>11.07334541860159</v>
       </c>
+      <c r="AD42" t="n">
+        <v>-1.136537111080367</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -4318,6 +4446,9 @@
       <c r="AC43" t="n">
         <v>11.09654553062109</v>
       </c>
+      <c r="AD43" t="n">
+        <v>-0.9672024163618732</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -4407,6 +4538,9 @@
       <c r="AC44" t="n">
         <v>11.12003349406023</v>
       </c>
+      <c r="AD44" t="n">
+        <v>-0.7903417352114459</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -4496,6 +4630,9 @@
       <c r="AC45" t="n">
         <v>11.14382478024778</v>
       </c>
+      <c r="AD45" t="n">
+        <v>-0.7204575754863533</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -4585,6 +4722,9 @@
       <c r="AC46" t="n">
         <v>11.16793173372788</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-0.7173217478063807</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -4674,6 +4814,9 @@
       <c r="AC47" t="n">
         <v>11.19236359168632</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-0.684171569475247</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -4763,6 +4906,9 @@
       <c r="AC48" t="n">
         <v>11.21712987707906</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.6869938143872218</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -4852,6 +4998,9 @@
       <c r="AC49" t="n">
         <v>11.24224222051557</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6352526576676819</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -4941,6 +5090,9 @@
       <c r="AC50" t="n">
         <v>11.26771264851272</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.5427457411085046</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -5030,6 +5182,9 @@
       <c r="AC51" t="n">
         <v>11.29355333389397</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.7183520911869429</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -5119,6 +5274,9 @@
       <c r="AC52" t="n">
         <v>11.31977686019439</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.7779328171064128</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -5208,6 +5366,9 @@
       <c r="AC53" t="n">
         <v>11.34639575082974</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-0.9246895525291082</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -5297,6 +5458,9 @@
       <c r="AC54" t="n">
         <v>11.37342179708321</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.8701261508975934</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -5386,6 +5550,9 @@
       <c r="AC55" t="n">
         <v>11.40086589072584</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-0.7509646990586535</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -5475,6 +5642,9 @@
       <c r="AC56" t="n">
         <v>11.42873816610419</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.7622536787065524</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -5564,6 +5734,9 @@
       <c r="AC57" t="n">
         <v>11.45704856569123</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-0.6650430206274166</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -5653,6 +5826,9 @@
       <c r="AC58" t="n">
         <v>11.48580719711956</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-0.8710668992015852</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -5742,6 +5918,9 @@
       <c r="AC59" t="n">
         <v>11.5150235381482</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.5449408204844849</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -5831,6 +6010,9 @@
       <c r="AC60" t="n">
         <v>11.54470703963553</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.3906580986298573</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -5920,6 +6102,9 @@
       <c r="AC61" t="n">
         <v>11.57486617913417</v>
       </c>
+      <c r="AD61" t="n">
+        <v>-0.1889198512183178</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -6009,6 +6194,9 @@
       <c r="AC62" t="n">
         <v>11.60550845153767</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-0.1481540913786805</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -6098,6 +6286,9 @@
       <c r="AC63" t="n">
         <v>11.63663947105162</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.1429277119120602</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -6187,6 +6378,9 @@
       <c r="AC64" t="n">
         <v>11.66826372229179</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.1123533920323323</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -6276,6 +6470,9 @@
       <c r="AC65" t="n">
         <v>11.7003863998318</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.0449330969129313</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -6365,6 +6562,9 @@
       <c r="AC66" t="n">
         <v>11.73301365591839</v>
       </c>
+      <c r="AD66" t="n">
+        <v>0.05812160366069775</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -6454,6 +6654,9 @@
       <c r="AC67" t="n">
         <v>11.76615160685621</v>
       </c>
+      <c r="AD67" t="n">
+        <v>0.1087129568975813</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -6543,6 +6746,9 @@
       <c r="AC68" t="n">
         <v>11.79980686666402</v>
       </c>
+      <c r="AD68" t="n">
+        <v>0.320381325295699</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -6632,6 +6838,9 @@
       <c r="AC69" t="n">
         <v>11.83398629010279</v>
       </c>
+      <c r="AD69" t="n">
+        <v>0.3486037744154484</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -6721,6 +6930,9 @@
       <c r="AC70" t="n">
         <v>11.8686975546316</v>
       </c>
+      <c r="AD70" t="n">
+        <v>0.282004767497945</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -6810,6 +7022,9 @@
       <c r="AC71" t="n">
         <v>11.90394878306817</v>
       </c>
+      <c r="AD71" t="n">
+        <v>0.3265335205535485</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -6899,6 +7114,9 @@
       <c r="AC72" t="n">
         <v>11.93974805413498</v>
       </c>
+      <c r="AD72" t="n">
+        <v>0.662067082310565</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -6988,6 +7206,9 @@
       <c r="AC73" t="n">
         <v>11.97610295622551</v>
       </c>
+      <c r="AD73" t="n">
+        <v>0.5679922519114019</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -7077,6 +7298,9 @@
       <c r="AC74" t="n">
         <v>12.01302002575442</v>
       </c>
+      <c r="AD74" t="n">
+        <v>0.5142840760107883</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -7166,6 +7390,9 @@
       <c r="AC75" t="n">
         <v>12.05050498011864</v>
       </c>
+      <c r="AD75" t="n">
+        <v>0.6727746769788374</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -7255,6 +7482,9 @@
       <c r="AC76" t="n">
         <v>12.08856318548353</v>
       </c>
+      <c r="AD76" t="n">
+        <v>0.7814833698845377</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -7344,6 +7574,9 @@
       <c r="AC77" t="n">
         <v>12.12719986695761</v>
       </c>
+      <c r="AD77" t="n">
+        <v>0.8510315480724903</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -7433,6 +7666,9 @@
       <c r="AC78" t="n">
         <v>12.16641864385539</v>
       </c>
+      <c r="AD78" t="n">
+        <v>1.178411957861579</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -7522,6 +7758,9 @@
       <c r="AC79" t="n">
         <v>12.20622244809275</v>
       </c>
+      <c r="AD79" t="n">
+        <v>1.303061108140471</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -7611,6 +7850,9 @@
       <c r="AC80" t="n">
         <v>12.24661268028067</v>
       </c>
+      <c r="AD80" t="n">
+        <v>1.246616209900972</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -7700,6 +7942,9 @@
       <c r="AC81" t="n">
         <v>12.28758977401179</v>
       </c>
+      <c r="AD81" t="n">
+        <v>1.350098523340052</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -7789,6 +8034,9 @@
       <c r="AC82" t="n">
         <v>12.3291530511219</v>
       </c>
+      <c r="AD82" t="n">
+        <v>1.481803285898881</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -7878,6 +8126,9 @@
       <c r="AC83" t="n">
         <v>12.37130098653902</v>
       </c>
+      <c r="AD83" t="n">
+        <v>1.557063150218212</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -7967,6 +8218,9 @@
       <c r="AC84" t="n">
         <v>12.41403051660413</v>
       </c>
+      <c r="AD84" t="n">
+        <v>1.677060822771811</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -8056,6 +8310,9 @@
       <c r="AC85" t="n">
         <v>12.45733598364218</v>
       </c>
+      <c r="AD85" t="n">
+        <v>1.576714337012703</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -8145,6 +8402,9 @@
       <c r="AC86" t="n">
         <v>12.50120966223749</v>
       </c>
+      <c r="AD86" t="n">
+        <v>1.514624948949256</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -8234,6 +8494,9 @@
       <c r="AC87" t="n">
         <v>12.54564205722206</v>
       </c>
+      <c r="AD87" t="n">
+        <v>1.552254881108921</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -8323,6 +8586,9 @@
       <c r="AC88" t="n">
         <v>12.59062364950418</v>
       </c>
+      <c r="AD88" t="n">
+        <v>1.48828399643749</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -8412,6 +8678,9 @@
       <c r="AC89" t="n">
         <v>12.63614491754252</v>
       </c>
+      <c r="AD89" t="n">
+        <v>1.273337262737584</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -8501,6 +8770,9 @@
       <c r="AC90" t="n">
         <v>12.68219488564495</v>
       </c>
+      <c r="AD90" t="n">
+        <v>1.162060177636859</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -8590,6 +8862,9 @@
       <c r="AC91" t="n">
         <v>12.72875960277218</v>
       </c>
+      <c r="AD91" t="n">
+        <v>0.9723426029985455</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -8679,6 +8954,9 @@
       <c r="AC92" t="n">
         <v>12.77582401564718</v>
       </c>
+      <c r="AD92" t="n">
+        <v>0.9545729128120377</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -8768,6 +9046,9 @@
       <c r="AC93" t="n">
         <v>12.82337337793114</v>
       </c>
+      <c r="AD93" t="n">
+        <v>1.052828846784497</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -8857,6 +9138,9 @@
       <c r="AC94" t="n">
         <v>12.87139240977615</v>
       </c>
+      <c r="AD94" t="n">
+        <v>1.015198914624832</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -8946,6 +9230,9 @@
       <c r="AC95" t="n">
         <v>12.91986563401522</v>
       </c>
+      <c r="AD95" t="n">
+        <v>1.034013880704665</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -9035,6 +9322,9 @@
       <c r="AC96" t="n">
         <v>12.96877666419074</v>
       </c>
+      <c r="AD96" t="n">
+        <v>0.8721624111315572</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -9124,6 +9414,9 @@
       <c r="AC97" t="n">
         <v>13.01810547380347</v>
       </c>
+      <c r="AD97" t="n">
+        <v>0.7936173940046376</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -9213,6 +9506,9 @@
       <c r="AC98" t="n">
         <v>13.06783081224123</v>
       </c>
+      <c r="AD98" t="n">
+        <v>0.557959943854732</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -9302,6 +9598,9 @@
       <c r="AC99" t="n">
         <v>13.11793193647124</v>
       </c>
+      <c r="AD99" t="n">
+        <v>0.5595278576947182</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -9391,6 +9690,9 @@
       <c r="AC100" t="n">
         <v>13.16838966625649</v>
       </c>
+      <c r="AD100" t="n">
+        <v>0.5286922188416596</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -9480,6 +9782,9 @@
       <c r="AC101" t="n">
         <v>13.21918505070585</v>
       </c>
+      <c r="AD101" t="n">
+        <v>0.4747559827461399</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -9569,6 +9874,9 @@
       <c r="AC102" t="n">
         <v>13.27029883915523</v>
       </c>
+      <c r="AD102" t="n">
+        <v>0.1591776880434909</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -9658,6 +9966,9 @@
       <c r="AC103" t="n">
         <v>13.3217101593784</v>
       </c>
+      <c r="AD103" t="n">
+        <v>0.1874001371632403</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -9747,6 +10058,9 @@
       <c r="AC104" t="n">
         <v>13.3733971047324</v>
       </c>
+      <c r="AD104" t="n">
+        <v>0.2072413741201543</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -9836,6 +10150,9 @@
       <c r="AC105" t="n">
         <v>13.42533663785379</v>
       </c>
+      <c r="AD105" t="n">
+        <v>0.01649654558667784</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -9925,6 +10242,9 @@
       <c r="AC106" t="n">
         <v>13.4775042257467</v>
       </c>
+      <c r="AD106" t="n">
+        <v>-0.001273144599830412</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -10014,6 +10334,9 @@
       <c r="AC107" t="n">
         <v>13.52987590861465</v>
       </c>
+      <c r="AD107" t="n">
+        <v>0.02224556299996061</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -10103,6 +10426,9 @@
       <c r="AC108" t="n">
         <v>13.58242765861288</v>
       </c>
+      <c r="AD108" t="n">
+        <v>-0.2152933837579271</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -10192,6 +10518,9 @@
       <c r="AC109" t="n">
         <v>13.63513521686002</v>
       </c>
+      <c r="AD109" t="n">
+        <v>-0.3359107555911401</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -10281,6 +10610,9 @@
       <c r="AC110" t="n">
         <v>13.68797337761702</v>
       </c>
+      <c r="AD110" t="n">
+        <v>-0.001721119982684071</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -10370,6 +10702,9 @@
       <c r="AC111" t="n">
         <v>13.74091651591496</v>
       </c>
+      <c r="AD111" t="n">
+        <v>0.1104450239547806</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -10459,6 +10794,9 @@
       <c r="AC112" t="n">
         <v>13.79393800183262</v>
       </c>
+      <c r="AD112" t="n">
+        <v>0.1211964331432559</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -10548,6 +10886,9 @@
       <c r="AC113" t="n">
         <v>13.84701164571076</v>
       </c>
+      <c r="AD113" t="n">
+        <v>0.1023814670634233</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -10637,6 +10978,9 @@
       <c r="AC114" t="n">
         <v>13.90011125078738</v>
       </c>
+      <c r="AD114" t="n">
+        <v>-0.01761620549017583</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -10726,6 +11070,9 @@
       <c r="AC115" t="n">
         <v>13.95321223918664</v>
       </c>
+      <c r="AD115" t="n">
+        <v>0.1157990085304559</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -10815,6 +11162,9 @@
       <c r="AC116" t="n">
         <v>14.00629234695669</v>
       </c>
+      <c r="AD116" t="n">
+        <v>0.1512579830655251</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -10904,6 +11254,9 @@
       <c r="AC117" t="n">
         <v>14.05933025011579</v>
       </c>
+      <c r="AD117" t="n">
+        <v>-0.01209013153665901</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -10993,6 +11346,9 @@
       <c r="AC118" t="n">
         <v>14.11230546504239</v>
       </c>
+      <c r="AD118" t="n">
+        <v>0.01532596189395453</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -11082,6 +11438,9 @@
       <c r="AC119" t="n">
         <v>14.16519801523195</v>
       </c>
+      <c r="AD119" t="n">
+        <v>-0.04986124381698109</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -11171,6 +11530,9 @@
       <c r="AC120" t="n">
         <v>14.21798803309096</v>
       </c>
+      <c r="AD120" t="n">
+        <v>-0.01995888701153269</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -11260,6 +11622,9 @@
       <c r="AC121" t="n">
         <v>14.27065667123595</v>
       </c>
+      <c r="AD121" t="n">
+        <v>0.07971563567329563</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -11349,6 +11714,9 @@
       <c r="AC122" t="n">
         <v>14.32318616205121</v>
       </c>
+      <c r="AD122" t="n">
+        <v>0.1089833606863684</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -11438,6 +11806,9 @@
       <c r="AC123" t="n">
         <v>14.3755598794912</v>
       </c>
+      <c r="AD123" t="n">
+        <v>0.01334061644721853</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -11527,6 +11898,9 @@
       <c r="AC124" t="n">
         <v>14.42776392506362</v>
       </c>
+      <c r="AD124" t="n">
+        <v>-0.03067296491810358</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -11616,6 +11990,9 @@
       <c r="AC125" t="n">
         <v>14.47978430440309</v>
       </c>
+      <c r="AD125" t="n">
+        <v>-0.09809326003750406</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -11705,6 +12082,9 @@
       <c r="AC126" t="n">
         <v>14.5316068500186</v>
       </c>
+      <c r="AD126" t="n">
+        <v>0.01871632104145692</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -11794,6 +12174,9 @@
       <c r="AC127" t="n">
         <v>14.58321766848911</v>
       </c>
+      <c r="AD127" t="n">
+        <v>0.02785501885166143</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -11883,6 +12266,9 @@
       <c r="AC128" t="n">
         <v>14.63460318092358</v>
       </c>
+      <c r="AD128" t="n">
+        <v>0.1953082169621725</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -11972,6 +12358,9 @@
       <c r="AC129" t="n">
         <v>14.68574771420619</v>
       </c>
+      <c r="AD129" t="n">
+        <v>0.0922738789059452</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -12061,6 +12450,9 @@
       <c r="AC130" t="n">
         <v>14.73663404019214</v>
       </c>
+      <c r="AD130" t="n">
+        <v>0.1234896180838501</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -12150,6 +12542,9 @@
       <c r="AC131" t="n">
         <v>14.78724525089856</v>
       </c>
+      <c r="AD131" t="n">
+        <v>0.164882543459482</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -12239,6 +12634,9 @@
       <c r="AC132" t="n">
         <v>14.83756455856178</v>
       </c>
+      <c r="AD132" t="n">
+        <v>0.07593906744572765</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -12328,6 +12726,9 @@
       <c r="AC133" t="n">
         <v>14.88757612004905</v>
       </c>
+      <c r="AD133" t="n">
+        <v>0.005905582593016999</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -12417,6 +12818,9 @@
       <c r="AC134" t="n">
         <v>14.93726522417802</v>
       </c>
+      <c r="AD134" t="n">
+        <v>-0.03494977232319128</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -12506,6 +12910,9 @@
       <c r="AC135" t="n">
         <v>14.98661884567785</v>
       </c>
+      <c r="AD135" t="n">
+        <v>0.1118069630995036</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -12595,6 +13002,9 @@
       <c r="AC136" t="n">
         <v>15.03562455232672</v>
       </c>
+      <c r="AD136" t="n">
+        <v>0.1149427907794757</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -12684,6 +13094,9 @@
       <c r="AC137" t="n">
         <v>15.08427073557619</v>
       </c>
+      <c r="AD137" t="n">
+        <v>0.04935172847339221</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -12773,6 +13186,9 @@
       <c r="AC138" t="n">
         <v>15.13254777260098</v>
       </c>
+      <c r="AD138" t="n">
+        <v>-0.01728460972601511</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -12862,6 +13278,9 @@
       <c r="AC139" t="n">
         <v>15.18044679794541</v>
       </c>
+      <c r="AD139" t="n">
+        <v>-0.05357061573712138</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -12951,6 +13370,9 @@
       <c r="AC140" t="n">
         <v>15.22795924050937</v>
       </c>
+      <c r="AD140" t="n">
+        <v>-0.3564019745458564</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -13040,6 +13462,9 @@
       <c r="AC141" t="n">
         <v>15.27507701622195</v>
       </c>
+      <c r="AD141" t="n">
+        <v>-0.5451719089512116</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -13129,6 +13554,9 @@
       <c r="AC142" t="n">
         <v>15.32179251855539</v>
       </c>
+      <c r="AD142" t="n">
+        <v>-0.6575241349707838</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -13218,6 +13646,9 @@
       <c r="AC143" t="n">
         <v>15.36809898195148</v>
       </c>
+      <c r="AD143" t="n">
+        <v>-0.6831809068978275</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -13307,6 +13738,9 @@
       <c r="AC144" t="n">
         <v>15.41399075847969</v>
       </c>
+      <c r="AD144" t="n">
+        <v>-0.7408801362093149</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -13396,6 +13830,9 @@
       <c r="AC145" t="n">
         <v>15.45946410240731</v>
       </c>
+      <c r="AD145" t="n">
+        <v>-0.8398012457502535</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -13485,6 +13922,9 @@
       <c r="AC146" t="n">
         <v>15.50451671879614</v>
       </c>
+      <c r="AD146" t="n">
+        <v>-0.8470377711655738</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -13574,6 +14014,9 @@
       <c r="AC147" t="n">
         <v>15.54914731695496</v>
       </c>
+      <c r="AD147" t="n">
+        <v>-0.8436168682419679</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -13663,6 +14106,9 @@
       <c r="AC148" t="n">
         <v>15.59335558812138</v>
       </c>
+      <c r="AD148" t="n">
+        <v>-0.9161888802641794</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -13752,6 +14198,9 @@
       <c r="AC149" t="n">
         <v>15.63714107402106</v>
       </c>
+      <c r="AD149" t="n">
+        <v>-0.9137996782222957</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -13841,6 +14290,9 @@
       <c r="AC150" t="n">
         <v>15.68050168228283</v>
       </c>
+      <c r="AD150" t="n">
+        <v>-0.8842706342358916</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -13930,6 +14382,9 @@
       <c r="AC151" t="n">
         <v>15.72343569130485</v>
       </c>
+      <c r="AD151" t="n">
+        <v>-0.9802062854561375</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -14019,6 +14474,9 @@
       <c r="AC152" t="n">
         <v>15.76594177829762</v>
       </c>
+      <c r="AD152" t="n">
+        <v>-1.039368901018278</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -14108,6 +14566,9 @@
       <c r="AC153" t="n">
         <v>15.80801799083558</v>
       </c>
+      <c r="AD153" t="n">
+        <v>-1.063852478673445</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -14197,6 +14658,9 @@
       <c r="AC154" t="n">
         <v>15.84966197854794</v>
       </c>
+      <c r="AD154" t="n">
+        <v>-1.045037512593613</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -14286,6 +14750,9 @@
       <c r="AC155" t="n">
         <v>15.89087176934967</v>
       </c>
+      <c r="AD155" t="n">
+        <v>-1.104618238513083</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -14375,6 +14842,9 @@
       <c r="AC156" t="n">
         <v>15.93164581074145</v>
       </c>
+      <c r="AD156" t="n">
+        <v>-1.230051345711967</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -14464,6 +14934,9 @@
       <c r="AC157" t="n">
         <v>15.97198234590946</v>
       </c>
+      <c r="AD157" t="n">
+        <v>-1.222525359280034</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -14553,6 +15026,9 @@
       <c r="AC158" t="n">
         <v>16.0118781005556</v>
       </c>
+      <c r="AD158" t="n">
+        <v>-1.347510491096065</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -14642,6 +15118,9 @@
       <c r="AC159" t="n">
         <v>16.05132915814749</v>
       </c>
+      <c r="AD159" t="n">
+        <v>-1.179250937296419</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -14731,6 +15210,9 @@
       <c r="AC160" t="n">
         <v>16.09033337267076</v>
       </c>
+      <c r="AD160" t="n">
+        <v>-1.224577901034198</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -14820,6 +15302,9 @@
       <c r="AC161" t="n">
         <v>16.12888962565848</v>
       </c>
+      <c r="AD161" t="n">
+        <v>-1.268479488553807</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -14909,6 +15394,9 @@
       <c r="AC162" t="n">
         <v>16.16699715015631</v>
       </c>
+      <c r="AD162" t="n">
+        <v>-1.155589692074811</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -14998,6 +15486,9 @@
       <c r="AC163" t="n">
         <v>16.20465678696286</v>
       </c>
+      <c r="AD163" t="n">
+        <v>-1.142001105461599</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -15087,6 +15578,9 @@
       <c r="AC164" t="n">
         <v>16.24187047084149</v>
       </c>
+      <c r="AD164" t="n">
+        <v>-1.181422939152676</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -15176,6 +15670,9 @@
       <c r="AC165" t="n">
         <v>16.27864088990318</v>
       </c>
+      <c r="AD165" t="n">
+        <v>-1.270166862495888</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -15265,6 +15762,9 @@
       <c r="AC166" t="n">
         <v>16.3149709579149</v>
       </c>
+      <c r="AD166" t="n">
+        <v>-1.320340105375441</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -15354,6 +15854,9 @@
       <c r="AC167" t="n">
         <v>16.35086283247509</v>
       </c>
+      <c r="AD167" t="n">
+        <v>-1.303197580724927</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -15443,6 +15946,9 @@
       <c r="AC168" t="n">
         <v>16.3863184478481</v>
       </c>
+      <c r="AD168" t="n">
+        <v>-1.354154780524474</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -15532,6 +16038,9 @@
       <c r="AC169" t="n">
         <v>16.42133943621038</v>
       </c>
+      <c r="AD169" t="n">
+        <v>-1.378345451198545</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -15621,6 +16130,9 @@
       <c r="AC170" t="n">
         <v>16.45592815315773</v>
       </c>
+      <c r="AD170" t="n">
+        <v>-1.511618127597359</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -15710,6 +16222,9 @@
       <c r="AC171" t="n">
         <v>16.49008761236179</v>
       </c>
+      <c r="AD171" t="n">
+        <v>-1.500866718408884</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -15799,6 +16314,9 @@
       <c r="AC172" t="n">
         <v>16.52382169646893</v>
       </c>
+      <c r="AD172" t="n">
+        <v>-1.502748215016866</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -15888,6 +16406,9 @@
       <c r="AC173" t="n">
         <v>16.55713499099725</v>
       </c>
+      <c r="AD173" t="n">
+        <v>-1.405594571986458</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -15977,6 +16498,9 @@
       <c r="AC174" t="n">
         <v>16.59003259516492</v>
       </c>
+      <c r="AD174" t="n">
+        <v>-1.400106873546507</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -16066,6 +16590,9 @@
       <c r="AC175" t="n">
         <v>16.6225194638679</v>
       </c>
+      <c r="AD175" t="n">
+        <v>-1.472230910185865</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -16155,6 +16682,9 @@
       <c r="AC176" t="n">
         <v>16.65460087008555</v>
       </c>
+      <c r="AD176" t="n">
+        <v>-1.515236546939769</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -16244,6 +16774,9 @@
       <c r="AC177" t="n">
         <v>16.68628210971277</v>
       </c>
+      <c r="AD177" t="n">
+        <v>-1.47572511817212</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -16333,6 +16866,9 @@
       <c r="AC178" t="n">
         <v>16.71756718956938</v>
       </c>
+      <c r="AD178" t="n">
+        <v>-1.456910152092287</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -16422,6 +16958,9 @@
       <c r="AC179" t="n">
         <v>16.74845978706425</v>
       </c>
+      <c r="AD179" t="n">
+        <v>-1.529482164114499</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -16511,6 +17050,9 @@
       <c r="AC180" t="n">
         <v>16.77896311214315</v>
       </c>
+      <c r="AD180" t="n">
+        <v>-1.641326684700171</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -16600,6 +17142,9 @@
       <c r="AC181" t="n">
         <v>16.80908038104791</v>
       </c>
+      <c r="AD181" t="n">
+        <v>-1.639465863879089</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -16689,6 +17234,9 @@
       <c r="AC182" t="n">
         <v>16.8388157629866</v>
       </c>
+      <c r="AD182" t="n">
+        <v>-1.494590625064377</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -16778,6 +17326,9 @@
       <c r="AC183" t="n">
         <v>16.86817350760894</v>
       </c>
+      <c r="AD183" t="n">
+        <v>-1.40268675228981</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -16867,6 +17418,9 @@
       <c r="AC184" t="n">
         <v>16.89715814241932</v>
       </c>
+      <c r="AD184" t="n">
+        <v>-1.280120687541186</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -16956,6 +17510,9 @@
       <c r="AC185" t="n">
         <v>16.92577410336449</v>
       </c>
+      <c r="AD185" t="n">
+        <v>-1.275416946021227</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -17045,6 +17602,9 @@
       <c r="AC186" t="n">
         <v>16.95402528122385</v>
       </c>
+      <c r="AD186" t="n">
+        <v>-1.256601979941395</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -17134,6 +17694,9 @@
       <c r="AC187" t="n">
         <v>16.98191412615457</v>
       </c>
+      <c r="AD187" t="n">
+        <v>-1.324335857828793</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -17223,6 +17786,9 @@
       <c r="AC188" t="n">
         <v>17.00944281321393</v>
       </c>
+      <c r="AD188" t="n">
+        <v>-1.370566917339239</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -17312,6 +17878,9 @@
       <c r="AC189" t="n">
         <v>17.03661459192922</v>
       </c>
+      <c r="AD189" t="n">
+        <v>-1.442063788442602</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -17401,6 +17970,9 @@
       <c r="AC190" t="n">
         <v>17.06343367092778</v>
       </c>
+      <c r="AD190" t="n">
+        <v>-1.438927960762631</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -17490,6 +18062,9 @@
       <c r="AC191" t="n">
         <v>17.08990442429756</v>
       </c>
+      <c r="AD191" t="n">
+        <v>-1.3636680964433</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -17579,6 +18154,9 @@
       <c r="AC192" t="n">
         <v>17.11603003929365</v>
       </c>
+      <c r="AD192" t="n">
+        <v>-1.464014582202408</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -17668,6 +18246,9 @@
       <c r="AC193" t="n">
         <v>17.14181467959794</v>
       </c>
+      <c r="AD193" t="n">
+        <v>-1.443318119514592</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -17757,6 +18338,9 @@
       <c r="AC194" t="n">
         <v>17.1672638036553</v>
       </c>
+      <c r="AD194" t="n">
+        <v>-1.280255080156042</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -17846,6 +18430,9 @@
       <c r="AC195" t="n">
         <v>17.19238383946877</v>
       </c>
+      <c r="AD195" t="n">
+        <v>-1.308163946507793</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -17935,6 +18522,9 @@
       <c r="AC196" t="n">
         <v>17.21718138293713</v>
       </c>
+      <c r="AD196" t="n">
+        <v>-1.163915873229076</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -18024,6 +18614,9 @@
       <c r="AC197" t="n">
         <v>17.24166347395035</v>
       </c>
+      <c r="AD197" t="n">
+        <v>-1.273042676492105</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -18113,6 +18706,9 @@
       <c r="AC198" t="n">
         <v>17.26583760082636</v>
       </c>
+      <c r="AD198" t="n">
+        <v>-1.181319716852921</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -18202,6 +18798,9 @@
       <c r="AC199" t="n">
         <v>17.28971241642407</v>
       </c>
+      <c r="AD199" t="n">
+        <v>-1.093516541813702</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -18291,6 +18890,9 @@
       <c r="AC200" t="n">
         <v>17.31329611206931</v>
       </c>
+      <c r="AD200" t="n">
+        <v>-1.092844578739423</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -18380,6 +18982,9 @@
       <c r="AC201" t="n">
         <v>17.33659496183449</v>
       </c>
+      <c r="AD201" t="n">
+        <v>-1.092844578739422</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -18469,6 +19074,9 @@
       <c r="AC202" t="n">
         <v>17.35961467387317</v>
       </c>
+      <c r="AD202" t="n">
+        <v>-1.024304345162888</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -18558,6 +19166,9 @@
       <c r="AC203" t="n">
         <v>17.3823604678498</v>
       </c>
+      <c r="AD203" t="n">
+        <v>-1.086393733226336</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -18647,6 +19258,9 @@
       <c r="AC204" t="n">
         <v>17.40483703968507</v>
       </c>
+      <c r="AD204" t="n">
+        <v>-0.9350900476676823</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -18736,6 +19350,9 @@
       <c r="AC205" t="n">
         <v>17.42704881494548</v>
       </c>
+      <c r="AD205" t="n">
+        <v>-0.8786451494281845</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -18825,6 +19442,9 @@
       <c r="AC206" t="n">
         <v>17.44899974596266</v>
       </c>
+      <c r="AD206" t="n">
+        <v>-0.854454478754114</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -18914,6 +19534,9 @@
       <c r="AC207" t="n">
         <v>17.47069388651126</v>
       </c>
+      <c r="AD207" t="n">
+        <v>-0.8498231024883088</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -19003,6 +19626,9 @@
       <c r="AC208" t="n">
         <v>17.49213499039468</v>
       </c>
+      <c r="AD208" t="n">
+        <v>-0.8278723087285036</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -19092,6 +19718,9 @@
       <c r="AC209" t="n">
         <v>17.5133263233279</v>
       </c>
+      <c r="AD209" t="n">
+        <v>-0.7801629304546426</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -19181,6 +19810,9 @@
       <c r="AC210" t="n">
         <v>17.53427045324483</v>
       </c>
+      <c r="AD210" t="n">
+        <v>-0.6474128920024899</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -19270,6 +19902,9 @@
       <c r="AC211" t="n">
         <v>17.55496970047674</v>
       </c>
+      <c r="AD211" t="n">
+        <v>-0.6646151467040506</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -19359,6 +19994,9 @@
       <c r="AC212" t="n">
         <v>17.57542525580833</v>
       </c>
+      <c r="AD212" t="n">
+        <v>-0.6975413373437576</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -19448,6 +20086,9 @@
       <c r="AC213" t="n">
         <v>17.59563709437264</v>
       </c>
+      <c r="AD213" t="n">
+        <v>-0.7660815709202912</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -19537,6 +20178,9 @@
       <c r="AC214" t="n">
         <v>17.61560604893557</v>
       </c>
+      <c r="AD214" t="n">
+        <v>-0.8062201652239345</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -19626,6 +20270,9 @@
       <c r="AC215" t="n">
         <v>17.63533204927021</v>
       </c>
+      <c r="AD215" t="n">
+        <v>-0.8109239067438924</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -19715,6 +20362,9 @@
       <c r="AC216" t="n">
         <v>17.65481589189601</v>
       </c>
+      <c r="AD216" t="n">
+        <v>-0.8673688049833908</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -19804,6 +20454,9 @@
       <c r="AC217" t="n">
         <v>17.67405801784427</v>
       </c>
+      <c r="AD217" t="n">
+        <v>-0.8391463558636418</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -19893,6 +20546,9 @@
       <c r="AC218" t="n">
         <v>17.69305885971601</v>
       </c>
+      <c r="AD218" t="n">
+        <v>-0.8466723422955751</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -19982,6 +20638,9 @@
       <c r="AC219" t="n">
         <v>17.71181928793404</v>
       </c>
+      <c r="AD219" t="n">
+        <v>-0.771412477976244</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -20071,6 +20730,9 @@
       <c r="AC220" t="n">
         <v>17.73034053318661</v>
       </c>
+      <c r="AD220" t="n">
+        <v>-0.8498081699755466</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -20160,6 +20822,9 @@
       <c r="AC221" t="n">
         <v>17.74862273801294</v>
       </c>
+      <c r="AD221" t="n">
+        <v>-1.010519338574118</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -20249,6 +20914,9 @@
       <c r="AC222" t="n">
         <v>17.76666501712598</v>
       </c>
+      <c r="AD222" t="n">
+        <v>-1.032470132333923</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -20338,6 +21006,9 @@
       <c r="AC223" t="n">
         <v>17.78446684108415</v>
       </c>
+      <c r="AD223" t="n">
+        <v>-0.8979431248631186</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -20427,6 +21098,9 @@
       <c r="AC224" t="n">
         <v>17.80202832655622</v>
       </c>
+      <c r="AD224" t="n">
+        <v>-1.010832921342115</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -20516,6 +21190,9 @@
       <c r="AC225" t="n">
         <v>17.81935029891104</v>
       </c>
+      <c r="AD225" t="n">
+        <v>-1.051688276258323</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -20605,6 +21282,9 @@
       <c r="AC226" t="n">
         <v>17.83643393430967</v>
       </c>
+      <c r="AD226" t="n">
+        <v>-1.227294626336762</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -20694,6 +21374,9 @@
       <c r="AC227" t="n">
         <v>17.85328073877537</v>
       </c>
+      <c r="AD227" t="n">
+        <v>-1.114404829857766</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -20783,6 +21466,9 @@
       <c r="AC228" t="n">
         <v>17.86989135882626</v>
       </c>
+      <c r="AD228" t="n">
+        <v>-1.208479660256929</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -20872,6 +21558,9 @@
       <c r="AC229" t="n">
         <v>17.88626512589695</v>
       </c>
+      <c r="AD229" t="n">
+        <v>-1.272764127696357</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -20961,6 +21650,9 @@
       <c r="AC230" t="n">
         <v>17.90240113921555</v>
       </c>
+      <c r="AD230" t="n">
+        <v>-1.221694934051098</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -21050,6 +21742,9 @@
       <c r="AC231" t="n">
         <v>17.9182984570803</v>
       </c>
+      <c r="AD231" t="n">
+        <v>-1.227966589411041</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -21139,6 +21834,9 @@
       <c r="AC232" t="n">
         <v>17.93395688204797</v>
       </c>
+      <c r="AD232" t="n">
+        <v>-1.0349787944779</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -21228,6 +21926,9 @@
       <c r="AC233" t="n">
         <v>17.94937774822854</v>
       </c>
+      <c r="AD233" t="n">
+        <v>-1.085152037357455</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -21317,6 +22018,9 @@
       <c r="AC234" t="n">
         <v>17.9645631832543</v>
       </c>
+      <c r="AD234" t="n">
+        <v>-1.172955212396673</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -21406,6 +22110,9 @@
       <c r="AC235" t="n">
         <v>17.97951691543058</v>
       </c>
+      <c r="AD235" t="n">
+        <v>-1.108446757265818</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -21495,6 +22202,9 @@
       <c r="AC236" t="n">
         <v>17.99424350986045</v>
       </c>
+      <c r="AD236" t="n">
+        <v>-0.920297096467491</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -21584,6 +22294,9 @@
       <c r="AC237" t="n">
         <v>18.00874710063791</v>
       </c>
+      <c r="AD237" t="n">
+        <v>-0.9550324184610282</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -21673,6 +22386,9 @@
       <c r="AC238" t="n">
         <v>18.02303053111589</v>
       </c>
+      <c r="AD238" t="n">
+        <v>-0.9456249354211124</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -21762,6 +22478,9 @@
       <c r="AC239" t="n">
         <v>18.0370977391918</v>
       </c>
+      <c r="AD239" t="n">
+        <v>-0.8311672251021304</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -21851,6 +22570,9 @@
       <c r="AC240" t="n">
         <v>18.05095528858542</v>
       </c>
+      <c r="AD240" t="n">
+        <v>-0.8905388958429357</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -21940,6 +22662,9 @@
       <c r="AC241" t="n">
         <v>18.06461060355222</v>
       </c>
+      <c r="AD241" t="n">
+        <v>-0.9102946102267605</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -22029,6 +22754,9 @@
       <c r="AC242" t="n">
         <v>18.07806991571421</v>
       </c>
+      <c r="AD242" t="n">
+        <v>-0.9926100868260284</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -22118,6 +22846,9 @@
       <c r="AC243" t="n">
         <v>18.09133936453464</v>
       </c>
+      <c r="AD243" t="n">
+        <v>-0.9123104994495995</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -22207,6 +22938,9 @@
       <c r="AC244" t="n">
         <v>18.10442719960747</v>
       </c>
+      <c r="AD244" t="n">
+        <v>-0.9415782244626723</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -22296,6 +23030,9 @@
       <c r="AC245" t="n">
         <v>18.1173420662363</v>
       </c>
+      <c r="AD245" t="n">
+        <v>-0.9204113876228607</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -22385,6 +23122,9 @@
       <c r="AC246" t="n">
         <v>18.13009312456786</v>
       </c>
+      <c r="AD246" t="n">
+        <v>-0.7965461942639619</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -22474,6 +23214,9 @@
       <c r="AC247" t="n">
         <v>18.14268986710381</v>
       </c>
+      <c r="AD247" t="n">
+        <v>-0.7306938129845477</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -22563,6 +23306,9 @@
       <c r="AC248" t="n">
         <v>18.15514270932967</v>
       </c>
+      <c r="AD248" t="n">
+        <v>-0.7212863299446314</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -22652,6 +23398,9 @@
       <c r="AC249" t="n">
         <v>18.16746240291977</v>
       </c>
+      <c r="AD249" t="n">
+        <v>-0.9141397322629164</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -22741,6 +23490,9 @@
       <c r="AC250" t="n">
         <v>18.17966070877961</v>
       </c>
+      <c r="AD250" t="n">
+        <v>-0.9110039045829439</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -22830,6 +23582,9 @@
       <c r="AC251" t="n">
         <v>18.19174867055284</v>
       </c>
+      <c r="AD251" t="n">
+        <v>-0.8380959110235924</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -22919,6 +23674,9 @@
       <c r="AC252" t="n">
         <v>18.20373716330479</v>
       </c>
+      <c r="AD252" t="n">
+        <v>-0.8018099050124866</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -23008,6 +23766,9 @@
       <c r="AC253" t="n">
         <v>18.21563681691158</v>
       </c>
+      <c r="AD253" t="n">
+        <v>-0.9852558242908555</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -23097,6 +23858,9 @@
       <c r="AC254" t="n">
         <v>18.2274572875067</v>
       </c>
+      <c r="AD254" t="n">
+        <v>-1.069923171650102</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -23186,6 +23950,9 @@
       <c r="AC255" t="n">
         <v>18.23920710085238</v>
       </c>
+      <c r="AD255" t="n">
+        <v>-1.096801694621292</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -23275,6 +24042,9 @@
       <c r="AC256" t="n">
         <v>18.25089523695189</v>
       </c>
+      <c r="AD256" t="n">
+        <v>-1.159518248220734</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -23364,6 +24134,9 @@
       <c r="AC257" t="n">
         <v>18.26253199058208</v>
       </c>
+      <c r="AD257" t="n">
+        <v>-1.244185595579981</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -23453,6 +24226,9 @@
       <c r="AC258" t="n">
         <v>18.27412708513152</v>
       </c>
+      <c r="AD258" t="n">
+        <v>-1.217307072608792</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -23542,6 +24318,9 @@
       <c r="AC259" t="n">
         <v>18.28568956853751</v>
       </c>
+      <c r="AD259" t="n">
+        <v>-1.142987956593452</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -23631,6 +24410,9 @@
       <c r="AC260" t="n">
         <v>18.29722898360542</v>
       </c>
+      <c r="AD260" t="n">
+        <v>-1.196297027152979</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -23720,6 +24502,9 @@
       <c r="AC261" t="n">
         <v>18.30875576821371</v>
       </c>
+      <c r="AD261" t="n">
+        <v>-1.221383648592755</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -23809,6 +24594,9 @@
       <c r="AC262" t="n">
         <v>18.32028011901492</v>
       </c>
+      <c r="AD262" t="n">
+        <v>-1.445281744942765</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -23898,6 +24686,9 @@
       <c r="AC263" t="n">
         <v>18.33181346106749</v>
       </c>
+      <c r="AD263" t="n">
+        <v>-1.366886052943461</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -23987,6 +24778,9 @@
       <c r="AC264" t="n">
         <v>18.3433692416896</v>
       </c>
+      <c r="AD264" t="n">
+        <v>-1.413923468143043</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -24076,6 +24870,9 @@
       <c r="AC265" t="n">
         <v>18.35496180269804</v>
       </c>
+      <c r="AD265" t="n">
+        <v>-1.544284304553313</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -24165,6 +24962,9 @@
       <c r="AC266" t="n">
         <v>18.366606516078</v>
       </c>
+      <c r="AD266" t="n">
+        <v>-1.619544168872644</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -24254,6 +25054,9 @@
       <c r="AC267" t="n">
         <v>18.37831845730165</v>
       </c>
+      <c r="AD267" t="n">
+        <v>-1.68853237783203</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -24343,6 +25146,9 @@
       <c r="AC268" t="n">
         <v>18.39011095968757</v>
       </c>
+      <c r="AD268" t="n">
+        <v>-1.69637194703196</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -24432,6 +25238,9 @@
       <c r="AC269" t="n">
         <v>18.40199738800725</v>
       </c>
+      <c r="AD269" t="n">
+        <v>-1.8155333988709</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -24521,6 +25330,9 @@
       <c r="AC270" t="n">
         <v>18.41399181238279</v>
       </c>
+      <c r="AD270" t="n">
+        <v>-1.766614487063336</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -24610,6 +25422,9 @@
       <c r="AC271" t="n">
         <v>18.42610851834803</v>
       </c>
+      <c r="AD271" t="n">
+        <v>-1.724280813383712</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -24699,6 +25514,9 @@
       <c r="AC272" t="n">
         <v>18.43836244794885</v>
       </c>
+      <c r="AD272" t="n">
+        <v>-1.640397422944458</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -24788,6 +25606,9 @@
       <c r="AC273" t="n">
         <v>18.45076947249977</v>
       </c>
+      <c r="AD273" t="n">
+        <v>-1.710483171591835</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -24877,6 +25698,9 @@
       <c r="AC274" t="n">
         <v>18.46334588877143</v>
       </c>
+      <c r="AD274" t="n">
+        <v>-1.825463519857479</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -24966,6 +25790,9 @@
       <c r="AC275" t="n">
         <v>18.47610806134992</v>
       </c>
+      <c r="AD275" t="n">
+        <v>-1.856037839737207</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -25055,6 +25882,9 @@
       <c r="AC276" t="n">
         <v>18.48907277357064</v>
       </c>
+      <c r="AD276" t="n">
+        <v>-1.853215594825232</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -25144,6 +25974,9 @@
       <c r="AC277" t="n">
         <v>18.50225765418265</v>
       </c>
+      <c r="AD277" t="n">
+        <v>-1.824993145705483</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -25233,6 +26066,9 @@
       <c r="AC278" t="n">
         <v>18.51568150287131</v>
       </c>
+      <c r="AD278" t="n">
+        <v>-1.841926615177333</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -25322,6 +26158,9 @@
       <c r="AC279" t="n">
         <v>18.52936244662142</v>
       </c>
+      <c r="AD279" t="n">
+        <v>-1.790185458457793</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -25411,6 +26250,9 @@
       <c r="AC280" t="n">
         <v>18.54331738983581</v>
       </c>
+      <c r="AD280" t="n">
+        <v>-1.783913803097849</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -25500,6 +26342,9 @@
       <c r="AC281" t="n">
         <v>18.5575626503059</v>
       </c>
+      <c r="AD281" t="n">
+        <v>-1.837670849040228</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -25589,6 +26434,9 @@
       <c r="AC282" t="n">
         <v>18.57211449110761</v>
       </c>
+      <c r="AD282" t="n">
+        <v>-1.870821027371361</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -25678,6 +26526,9 @@
       <c r="AC283" t="n">
         <v>18.58698899773761</v>
       </c>
+      <c r="AD283" t="n">
+        <v>-1.861413544331445</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -25767,6 +26618,9 @@
       <c r="AC284" t="n">
         <v>18.60220224693172</v>
       </c>
+      <c r="AD284" t="n">
+        <v>-1.692078849612951</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -25856,6 +26710,9 @@
       <c r="AC285" t="n">
         <v>18.61777053394531</v>
       </c>
+      <c r="AD285" t="n">
+        <v>-1.477588236302858</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -25945,6 +26802,9 @@
       <c r="AC286" t="n">
         <v>18.63370984111061</v>
       </c>
+      <c r="AD286" t="n">
+        <v>-1.383513405903695</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -26034,6 +26894,9 @@
       <c r="AC287" t="n">
         <v>18.65003561055705</v>
       </c>
+      <c r="AD287" t="n">
+        <v>-1.209474969665243</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -26123,6 +26986,9 @@
       <c r="AC288" t="n">
         <v>18.6667632400058</v>
       </c>
+      <c r="AD288" t="n">
+        <v>-1.088969591677742</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -26212,6 +27078,9 @@
       <c r="AC289" t="n">
         <v>18.68390678067793</v>
       </c>
+      <c r="AD289" t="n">
+        <v>-1.114235403270661</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -26301,6 +27170,9 @@
       <c r="AC290" t="n">
         <v>18.70148003238583</v>
       </c>
+      <c r="AD290" t="n">
+        <v>-1.155001163110298</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -26390,6 +27262,9 @@
       <c r="AC291" t="n">
         <v>18.71949578795689</v>
       </c>
+      <c r="AD291" t="n">
+        <v>-1.127405879526544</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -26479,6 +27354,9 @@
       <c r="AC292" t="n">
         <v>18.73796655075284</v>
       </c>
+      <c r="AD292" t="n">
+        <v>-1.127405879526544</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -26568,6 +27446,9 @@
       <c r="AC293" t="n">
         <v>18.75690605605311</v>
       </c>
+      <c r="AD293" t="n">
+        <v>-1.221480709925707</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -26657,6 +27538,9 @@
       <c r="AC294" t="n">
         <v>18.77632872989978</v>
       </c>
+      <c r="AD294" t="n">
+        <v>-1.197962002325916</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -26746,6 +27630,9 @@
       <c r="AC295" t="n">
         <v>18.7962486449776</v>
       </c>
+      <c r="AD295" t="n">
+        <v>-1.103887171926753</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -26835,6 +27722,9 @@
       <c r="AC296" t="n">
         <v>18.8166786331569</v>
       </c>
+      <c r="AD296" t="n">
+        <v>-1.197962002325916</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -26924,6 +27814,9 @@
       <c r="AC297" t="n">
         <v>18.83763050194507</v>
       </c>
+      <c r="AD297" t="n">
+        <v>-1.223048623765694</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -27013,6 +27906,9 @@
       <c r="AC298" t="n">
         <v>18.85911499781103</v>
       </c>
+      <c r="AD298" t="n">
+        <v>-1.174443294726125</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -27102,6 +27998,9 @@
       <c r="AC299" t="n">
         <v>18.8811442964669</v>
       </c>
+      <c r="AD299" t="n">
+        <v>-1.155628328646293</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -27191,6 +28090,9 @@
       <c r="AC300" t="n">
         <v>18.90373107514125</v>
       </c>
+      <c r="AD300" t="n">
+        <v>-1.272281118341255</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -27280,6 +28182,9 @@
       <c r="AC301" t="n">
         <v>18.9268879384414</v>
       </c>
+      <c r="AD301" t="n">
+        <v>-1.187613770982008</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -27369,6 +28274,9 @@
       <c r="AC302" t="n">
         <v>18.95062754638985</v>
       </c>
+      <c r="AD302" t="n">
+        <v>-1.22613965390738</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -27458,6 +28366,9 @@
       <c r="AC303" t="n">
         <v>18.97496107937595</v>
       </c>
+      <c r="AD303" t="n">
+        <v>-1.25875226177909</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -27547,6 +28458,9 @@
       <c r="AC304" t="n">
         <v>18.99989849385779</v>
       </c>
+      <c r="AD304" t="n">
+        <v>-1.145862465300094</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -27636,6 +28550,9 @@
       <c r="AC305" t="n">
         <v>19.02544978056415</v>
       </c>
+      <c r="AD305" t="n">
+        <v>-1.108232533140429</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -27725,6 +28642,9 @@
       <c r="AC306" t="n">
         <v>19.05162454042575</v>
       </c>
+      <c r="AD306" t="n">
+        <v>-1.119939623145658</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -27814,6 +28734,9 @@
       <c r="AC307" t="n">
         <v>19.07843187180804</v>
       </c>
+      <c r="AD307" t="n">
+        <v>-1.148162072265407</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -27903,6 +28826,9 @@
       <c r="AC308" t="n">
         <v>19.10588045825092</v>
       </c>
+      <c r="AD308" t="n">
+        <v>-1.113757562862284</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -27992,6 +28918,9 @@
       <c r="AC309" t="n">
         <v>19.13397895429316</v>
       </c>
+      <c r="AD309" t="n">
+        <v>-1.117789341307962</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -28081,6 +29010,9 @@
       <c r="AC310" t="n">
         <v>19.16273671769655</v>
       </c>
+      <c r="AD310" t="n">
+        <v>-1.066048184588423</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -28170,6 +29102,9 @@
       <c r="AC311" t="n">
         <v>19.19216382856486</v>
       </c>
+      <c r="AD311" t="n">
+        <v>-1.012291138646044</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -28259,6 +29194,9 @@
       <c r="AC312" t="n">
         <v>19.22227023911054</v>
       </c>
+      <c r="AD312" t="n">
+        <v>-1.002883655606128</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -28348,6 +29286,9 @@
       <c r="AC313" t="n">
         <v>19.25306556710151</v>
       </c>
+      <c r="AD313" t="n">
+        <v>-0.8053265117678846</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -28437,6 +29378,9 @@
       <c r="AC314" t="n">
         <v>19.28455981651098</v>
       </c>
+      <c r="AD314" t="n">
+        <v>-0.9777970341663503</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -28526,6 +29470,9 @@
       <c r="AC315" t="n">
         <v>19.31676346273963</v>
       </c>
+      <c r="AD315" t="n">
+        <v>-1.211102613556275</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -28615,6 +29562,9 @@
       <c r="AC316" t="n">
         <v>19.3496867381264</v>
       </c>
+      <c r="AD316" t="n">
+        <v>-1.253436287235899</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -28704,6 +29654,9 @@
       <c r="AC317" t="n">
         <v>19.38333806256036</v>
       </c>
+      <c r="AD317" t="n">
+        <v>-1.389844791314686</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -28793,6 +29746,9 @@
       <c r="AC318" t="n">
         <v>19.41772475574997</v>
       </c>
+      <c r="AD318" t="n">
+        <v>-1.55133991683325</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -28882,6 +29838,9 @@
       <c r="AC319" t="n">
         <v>19.45285448716441</v>
       </c>
+      <c r="AD319" t="n">
+        <v>-1.552833168109428</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -28971,6 +29930,9 @@
       <c r="AC320" t="n">
         <v>19.48873592340039</v>
       </c>
+      <c r="AD320" t="n">
+        <v>-1.465029993070208</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -29060,6 +30022,9 @@
       <c r="AC321" t="n">
         <v>19.52537776989152</v>
       </c>
+      <c r="AD321" t="n">
+        <v>-1.402134249317624</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -29149,6 +30114,9 @@
       <c r="AC322" t="n">
         <v>19.5627894883891</v>
       </c>
+      <c r="AD322" t="n">
+        <v>-1.360228188503452</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -29238,6 +30206,9 @@
       <c r="AC323" t="n">
         <v>19.60098031366924</v>
       </c>
+      <c r="AD323" t="n">
+        <v>-1.352702202071518</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -29327,6 +30298,9 @@
       <c r="AC324" t="n">
         <v>19.63995872654647</v>
       </c>
+      <c r="AD324" t="n">
+        <v>-1.253923630152397</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -29416,6 +30390,9 @@
       <c r="AC325" t="n">
         <v>19.67973249277865</v>
       </c>
+      <c r="AD325" t="n">
+        <v>-1.173960024313108</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -29505,6 +30482,9 @@
       <c r="AC326" t="n">
         <v>19.72030882121223</v>
       </c>
+      <c r="AD326" t="n">
+        <v>-1.225029217958368</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -29594,6 +30574,9 @@
       <c r="AC327" t="n">
         <v>19.76169452740724</v>
       </c>
+      <c r="AD327" t="n">
+        <v>-1.124682732199261</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -29683,6 +30666,9 @@
       <c r="AC328" t="n">
         <v>19.80389704035339</v>
       </c>
+      <c r="AD328" t="n">
+        <v>-0.9584838651607385</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -29772,6 +30758,9 @@
       <c r="AC329" t="n">
         <v>19.84692438369269</v>
       </c>
+      <c r="AD329" t="n">
+        <v>-0.9208539330010732</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -29861,6 +30850,9 @@
       <c r="AC330" t="n">
         <v>19.89078465856069</v>
       </c>
+      <c r="AD330" t="n">
+        <v>-0.838068082249809</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -29950,6 +30942,9 @@
       <c r="AC331" t="n">
         <v>19.93548442162547</v>
       </c>
+      <c r="AD331" t="n">
+        <v>-0.8035739777701163</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -30039,6 +31034,9 @@
       <c r="AC332" t="n">
         <v>19.98102985720145</v>
       </c>
+      <c r="AD332" t="n">
+        <v>-0.8324683899641447</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -30128,6 +31126,9 @@
       <c r="AC333" t="n">
         <v>20.02742811049483</v>
       </c>
+      <c r="AD333" t="n">
+        <v>-0.7603443533247859</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -30217,6 +31218,9 @@
       <c r="AC334" t="n">
         <v>20.07468756718465</v>
       </c>
+      <c r="AD334" t="n">
+        <v>-0.7842906737900273</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -30306,6 +31310,9 @@
       <c r="AC335" t="n">
         <v>20.12281730342949</v>
       </c>
+      <c r="AD335" t="n">
+        <v>-0.667637884095065</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -30395,6 +31402,9 @@
       <c r="AC336" t="n">
         <v>20.17182703379241</v>
       </c>
+      <c r="AD336" t="n">
+        <v>-0.6277083449700863</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -30484,6 +31494,9 @@
       <c r="AC337" t="n">
         <v>20.22172771710473</v>
       </c>
+      <c r="AD337" t="n">
+        <v>-0.564207834450651</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -30573,6 +31586,9 @@
       <c r="AC338" t="n">
         <v>20.27253088349212</v>
       </c>
+      <c r="AD338" t="n">
+        <v>-0.5471847699022311</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -30662,6 +31678,9 @@
       <c r="AC339" t="n">
         <v>20.32424740246248</v>
       </c>
+      <c r="AD339" t="n">
+        <v>-0.6202943523838672</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -30751,6 +31770,9 @@
       <c r="AC340" t="n">
         <v>20.37688632666124</v>
       </c>
+      <c r="AD340" t="n">
+        <v>-0.6364961287303896</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -30840,6 +31862,9 @@
       <c r="AC341" t="n">
         <v>20.43045644363988</v>
       </c>
+      <c r="AD341" t="n">
+        <v>-0.594162455050766</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -30929,6 +31954,9 @@
       <c r="AC342" t="n">
         <v>20.48496807417364</v>
       </c>
+      <c r="AD342" t="n">
+        <v>-0.4580675337399765</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -31018,6 +32046,9 @@
       <c r="AC343" t="n">
         <v>20.54043061836257</v>
       </c>
+      <c r="AD343" t="n">
+        <v>-0.6462171945383032</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -31107,6 +32138,9 @@
       <c r="AC344" t="n">
         <v>20.59685183960269</v>
       </c>
+      <c r="AD344" t="n">
+        <v>-0.5809919787948831</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -31196,6 +32230,9 @@
       <c r="AC345" t="n">
         <v>20.65424019092223</v>
       </c>
+      <c r="AD345" t="n">
+        <v>-0.3552123858368906</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -31285,6 +32322,9 @@
       <c r="AC346" t="n">
         <v>20.71260465285332</v>
       </c>
+      <c r="AD346" t="n">
+        <v>-0.3787310934366817</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -31374,6 +32414,9 @@
       <c r="AC347" t="n">
         <v>20.77195313784204</v>
       </c>
+      <c r="AD347" t="n">
+        <v>-0.3024259532240268</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -31463,6 +32506,9 @@
       <c r="AC348" t="n">
         <v>20.8322927003596</v>
       </c>
+      <c r="AD348" t="n">
+        <v>-0.2251501996818568</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -31552,6 +32598,9 @@
       <c r="AC349" t="n">
         <v>20.89363109263807</v>
       </c>
+      <c r="AD349" t="n">
+        <v>-0.2312318048793784</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -31641,6 +32690,9 @@
       <c r="AC350" t="n">
         <v>20.9559757398831</v>
       </c>
+      <c r="AD350" t="n">
+        <v>-0.2132007957195389</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -31730,6 +32782,9 @@
       <c r="AC351" t="n">
         <v>21.01933423568549</v>
       </c>
+      <c r="AD351" t="n">
+        <v>-0.2064811649767416</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -31819,6 +32874,9 @@
       <c r="AC352" t="n">
         <v>21.08371410798828</v>
       </c>
+      <c r="AD352" t="n">
+        <v>-0.2201647766711649</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -31908,6 +32966,9 @@
       <c r="AC353" t="n">
         <v>21.14912253758441</v>
       </c>
+      <c r="AD353" t="n">
+        <v>-0.1594865110637045</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -31997,6 +33058,9 @@
       <c r="AC354" t="n">
         <v>21.21556508264708</v>
       </c>
+      <c r="AD354" t="n">
+        <v>-0.2239949661945602</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -32086,6 +33150,9 @@
       <c r="AC355" t="n">
         <v>21.2830460070969</v>
       </c>
+      <c r="AD355" t="n">
+        <v>-0.2673739157675072</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -32175,6 +33242,9 @@
       <c r="AC356" t="n">
         <v>21.35156865100569</v>
       </c>
+      <c r="AD356" t="n">
+        <v>-0.2037614114023589</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -32264,6 +33334,9 @@
       <c r="AC357" t="n">
         <v>21.42113581707428</v>
       </c>
+      <c r="AD357" t="n">
+        <v>-0.2664779650018014</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -32353,6 +33426,9 @@
       <c r="AC358" t="n">
         <v>21.49175100604324</v>
       </c>
+      <c r="AD358" t="n">
+        <v>-0.5128644255710386</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -32442,6 +33518,9 @@
       <c r="AC359" t="n">
         <v>21.56341859532141</v>
       </c>
+      <c r="AD359" t="n">
+        <v>-0.4564195273315403</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -32531,6 +33610,9 @@
       <c r="AC360" t="n">
         <v>21.63614239700738</v>
       </c>
+      <c r="AD360" t="n">
+        <v>-0.5730723170265031</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -32620,6 +33702,9 @@
       <c r="AC361" t="n">
         <v>21.7099251243879</v>
       </c>
+      <c r="AD361" t="n">
+        <v>-0.7204562179851924</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -32709,6 +33794,9 @@
       <c r="AC362" t="n">
         <v>21.78476878672722</v>
       </c>
+      <c r="AD362" t="n">
+        <v>-0.6906658550254577</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -32798,6 +33886,9 @@
       <c r="AC363" t="n">
         <v>21.86067226556439</v>
       </c>
+      <c r="AD363" t="n">
+        <v>-0.7533824086248994</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -32887,6 +33978,9 @@
       <c r="AC364" t="n">
         <v>21.93763149676526</v>
       </c>
+      <c r="AD364" t="n">
+        <v>-0.8297825739187662</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -32976,6 +34070,9 @@
       <c r="AC365" t="n">
         <v>22.01564141192012</v>
       </c>
+      <c r="AD365" t="n">
+        <v>-0.9934727788133102</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -33065,6 +34162,9 @@
       <c r="AC366" t="n">
         <v>22.09469630875085</v>
       </c>
+      <c r="AD366" t="n">
+        <v>-1.016677903645104</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -33154,6 +34254,9 @@
       <c r="AC367" t="n">
         <v>22.1747892777223</v>
       </c>
+      <c r="AD367" t="n">
+        <v>-1.111536690964261</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -33243,6 +34346,9 @@
       <c r="AC368" t="n">
         <v>22.25591220435945</v>
       </c>
+      <c r="AD368" t="n">
+        <v>-1.004918549845209</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -33332,6 +34438,9 @@
       <c r="AC369" t="n">
         <v>22.33805651017764</v>
       </c>
+      <c r="AD369" t="n">
+        <v>-0.9873579148373646</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -33421,6 +34530,9 @@
       <c r="AC370" t="n">
         <v>22.42121326714879</v>
       </c>
+      <c r="AD370" t="n">
+        <v>-0.679524164253435</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -33510,6 +34622,9 @@
       <c r="AC371" t="n">
         <v>22.50537364385012</v>
       </c>
+      <c r="AD371" t="n">
+        <v>-0.6371904905738114</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -33599,6 +34714,9 @@
       <c r="AC372" t="n">
         <v>22.59052804766712</v>
       </c>
+      <c r="AD372" t="n">
+        <v>-0.5506416466065815</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -33688,6 +34806,9 @@
       <c r="AC373" t="n">
         <v>22.6766652879238</v>
       </c>
+      <c r="AD373" t="n">
+        <v>-0.3836588226480664</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -33777,6 +34898,9 @@
       <c r="AC374" t="n">
         <v>22.76377254970929</v>
       </c>
+      <c r="AD374" t="n">
+        <v>-0.2975803528328319</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -33866,6 +34990,9 @@
       <c r="AC375" t="n">
         <v>22.85183498629493</v>
       </c>
+      <c r="AD375" t="n">
+        <v>-0.3997187401233523</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -33955,6 +35082,9 @@
       <c r="AC376" t="n">
         <v>22.94083732212579</v>
       </c>
+      <c r="AD376" t="n">
+        <v>-0.3401380142038819</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -34044,6 +35174,9 @@
       <c r="AC377" t="n">
         <v>23.03076422285255</v>
       </c>
+      <c r="AD377" t="n">
+        <v>-0.1248111801791296</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -34133,6 +35266,9 @@
       <c r="AC378" t="n">
         <v>23.12160035106243</v>
       </c>
+      <c r="AD378" t="n">
+        <v>-0.2193339859611469</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -34222,6 +35358,9 @@
       <c r="AC379" t="n">
         <v>23.21332978285722</v>
       </c>
+      <c r="AD379" t="n">
+        <v>-0.303146107589493</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -34311,6 +35450,9 @@
       <c r="AC380" t="n">
         <v>23.3059365121205</v>
       </c>
+      <c r="AD380" t="n">
+        <v>-0.3337204274692209</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -34400,6 +35542,9 @@
       <c r="AC381" t="n">
         <v>23.39940358666359</v>
       </c>
+      <c r="AD381" t="n">
+        <v>-0.4277952578683845</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -34489,6 +35634,9 @@
       <c r="AC382" t="n">
         <v>23.49371361760906</v>
       </c>
+      <c r="AD382" t="n">
+        <v>-0.4424291203749206</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -34578,6 +35726,9 @@
       <c r="AC383" t="n">
         <v>23.58885004769504</v>
       </c>
+      <c r="AD383" t="n">
+        <v>-0.4510526464948443</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -34667,6 +35818,9 @@
       <c r="AC384" t="n">
         <v>23.68479752634141</v>
       </c>
+      <c r="AD384" t="n">
+        <v>-0.3658477286761724</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -34756,6 +35910,9 @@
       <c r="AC385" t="n">
         <v>23.78154053169768</v>
       </c>
+      <c r="AD385" t="n">
+        <v>-0.3140020443673008</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -34845,6 +36002,9 @@
       <c r="AC386" t="n">
         <v>23.87906244833953</v>
       </c>
+      <c r="AD386" t="n">
+        <v>-0.190136851008402</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -34934,6 +36094,9 @@
       <c r="AC387" t="n">
         <v>23.97734459459895</v>
       </c>
+      <c r="AD387" t="n">
+        <v>-0.1399636081288483</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -35023,6 +36186,9 @@
       <c r="AC388" t="n">
         <v>24.07636690568755</v>
       </c>
+      <c r="AD388" t="n">
+        <v>0.2067693381994967</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -35112,6 +36278,9 @@
       <c r="AC389" t="n">
         <v>24.17610700774051</v>
       </c>
+      <c r="AD389" t="n">
+        <v>0.1816827167597198</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -35201,6 +36370,9 @@
       <c r="AC390" t="n">
         <v>24.27654173075144</v>
       </c>
+      <c r="AD390" t="n">
+        <v>0.3002170030626657</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -35290,6 +36462,9 @@
       <c r="AC391" t="n">
         <v>24.37764662458477</v>
       </c>
+      <c r="AD391" t="n">
+        <v>0.3472544182622473</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -35379,6 +36554,9 @@
       <c r="AC392" t="n">
         <v>24.47939559036783</v>
       </c>
+      <c r="AD392" t="n">
+        <v>0.322167796822471</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -35468,6 +36646,9 @@
       <c r="AC393" t="n">
         <v>24.58176113409791</v>
       </c>
+      <c r="AD393" t="n">
+        <v>0.4084030580217036</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -35557,6 +36738,9 @@
       <c r="AC394" t="n">
         <v>24.68471620772414</v>
       </c>
+      <c r="AD394" t="n">
+        <v>0.5150211991407561</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -35646,6 +36830,9 @@
       <c r="AC395" t="n">
         <v>24.78823408728177</v>
       </c>
+      <c r="AD395" t="n">
+        <v>0.5746019250602256</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -35735,6 +36922,9 @@
       <c r="AC396" t="n">
         <v>24.89228591406725</v>
       </c>
+      <c r="AD396" t="n">
+        <v>0.6540428929528525</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -35824,6 +37014,9 @@
       <c r="AC397" t="n">
         <v>24.99684254066601</v>
       </c>
+      <c r="AD397" t="n">
+        <v>0.7857476555116818</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -35913,6 +37106,9 @@
       <c r="AC398" t="n">
         <v>25.10187509147337</v>
       </c>
+      <c r="AD398" t="n">
+        <v>0.7716364309518071</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -36002,6 +37198,9 @@
       <c r="AC399" t="n">
         <v>25.20735499861906</v>
       </c>
+      <c r="AD399" t="n">
+        <v>0.7841797416716946</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -36091,6 +37290,9 @@
       <c r="AC400" t="n">
         <v>25.3132544506532</v>
       </c>
+      <c r="AD400" t="n">
+        <v>0.5662397179136336</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -36180,6 +37382,9 @@
       <c r="AC401" t="n">
         <v>25.41954437340803</v>
       </c>
+      <c r="AD401" t="n">
+        <v>0.5097948196741358</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -36269,6 +37474,9 @@
       <c r="AC402" t="n">
         <v>25.52619466021584</v>
       </c>
+      <c r="AD402" t="n">
+        <v>0.3141191724438753</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -36358,6 +37566,9 @@
       <c r="AC403" t="n">
         <v>25.63317324857195</v>
       </c>
+      <c r="AD403" t="n">
+        <v>0.2600261449643564</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -36447,6 +37658,9 @@
       <c r="AC404" t="n">
         <v>25.74044618800815</v>
       </c>
+      <c r="AD404" t="n">
+        <v>0.4176014858829552</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -36536,6 +37750,9 @@
       <c r="AC405" t="n">
         <v>25.84797868503117</v>
       </c>
+      <c r="AD405" t="n">
+        <v>0.4549327677873853</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -36625,6 +37842,9 @@
       <c r="AC406" t="n">
         <v>25.95573477355062</v>
       </c>
+      <c r="AD406" t="n">
+        <v>0.6211316348259073</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -36714,6 +37934,9 @@
       <c r="AC407" t="n">
         <v>26.06367733249484</v>
       </c>
+      <c r="AD407" t="n">
+        <v>0.4706119061872454</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -36803,6 +38026,9 @@
       <c r="AC408" t="n">
         <v>26.17176977298814</v>
       </c>
+      <c r="AD408" t="n">
+        <v>0.6863568505693275</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -36892,6 +38118,9 @@
       <c r="AC409" t="n">
         <v>26.27997806392883</v>
       </c>
+      <c r="AD409" t="n">
+        <v>0.6675418844894948</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -36981,6 +38210,9 @@
       <c r="AC410" t="n">
         <v>26.38827090527192</v>
       </c>
+      <c r="AD410" t="n">
+        <v>0.6487269184096622</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -37070,6 +38302,9 @@
       <c r="AC411" t="n">
         <v>26.49662017727681</v>
       </c>
+      <c r="AD411" t="n">
+        <v>0.8180616131281568</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -37159,6 +38394,9 @@
       <c r="AC412" t="n">
         <v>26.60499878913618</v>
       </c>
+      <c r="AD412" t="n">
+        <v>0.9576806074507235</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -37248,6 +38486,9 @@
       <c r="AC413" t="n">
         <v>26.71337884561025</v>
       </c>
+      <c r="AD413" t="n">
+        <v>1.069943238393725</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -37337,6 +38578,9 @@
       <c r="AC414" t="n">
         <v>26.8217300830065</v>
       </c>
+      <c r="AD414" t="n">
+        <v>1.248147845692714</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -37426,6 +38670,9 @@
       <c r="AC415" t="n">
         <v>26.93002087534422</v>
       </c>
+      <c r="AD415" t="n">
+        <v>1.298739198929596</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -37515,6 +38762,9 @@
       <c r="AC416" t="n">
         <v>27.03821835544369</v>
       </c>
+      <c r="AD416" t="n">
+        <v>1.285351626911253</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -37604,6 +38854,9 @@
       <c r="AC417" t="n">
         <v>27.14628873729146</v>
       </c>
+      <c r="AD417" t="n">
+        <v>1.41045464698593</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -37693,6 +38946,9 @@
       <c r="AC418" t="n">
         <v>27.2541988787866</v>
       </c>
+      <c r="AD418" t="n">
+        <v>1.181539226347966</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -37782,6 +39038,9 @@
       <c r="AC419" t="n">
         <v>27.36191640112773</v>
       </c>
+      <c r="AD419" t="n">
+        <v>1.172416818551683</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -37871,6 +39130,9 @@
       <c r="AC420" t="n">
         <v>27.46940878046442</v>
       </c>
+      <c r="AD420" t="n">
+        <v>1.209533615272808</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -37960,6 +39222,9 @@
       <c r="AC421" t="n">
         <v>27.57664483700366</v>
       </c>
+      <c r="AD421" t="n">
+        <v>1.168140689897175</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -38049,6 +39314,9 @@
       <c r="AC422" t="n">
         <v>27.68359462556658</v>
       </c>
+      <c r="AD422" t="n">
+        <v>1.240264726536534</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -38138,6 +39406,9 @@
       <c r="AC423" t="n">
         <v>27.79022738289285</v>
       </c>
+      <c r="AD423" t="n">
+        <v>1.213610191256771</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -38227,6 +39498,9 @@
       <c r="AC424" t="n">
         <v>27.89651197016252</v>
       </c>
+      <c r="AD424" t="n">
+        <v>1.266919261816298</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -38316,6 +39590,9 @@
       <c r="AC425" t="n">
         <v>28.00241710087432</v>
       </c>
+      <c r="AD425" t="n">
+        <v>1.307685021655935</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -38405,6 +39682,9 @@
       <c r="AC426" t="n">
         <v>28.10791183326342</v>
       </c>
+      <c r="AD426" t="n">
+        <v>1.225108226083337</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -38494,6 +39774,9 @@
       <c r="AC427" t="n">
         <v>28.21296503466835</v>
       </c>
+      <c r="AD427" t="n">
+        <v>1.20002160464356</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -38583,6 +39866,9 @@
       <c r="AC428" t="n">
         <v>28.31754796476545</v>
       </c>
+      <c r="AD428" t="n">
+        <v>1.052324120916873</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -38672,6 +39958,9 @@
       <c r="AC429" t="n">
         <v>28.4216335685475</v>
       </c>
+      <c r="AD429" t="n">
+        <v>1.135647542127561</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -38761,6 +40050,9 @@
       <c r="AC430" t="n">
         <v>28.52519432449172</v>
       </c>
+      <c r="AD430" t="n">
+        <v>1.057251850128258</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -38850,6 +40142,9 @@
       <c r="AC431" t="n">
         <v>28.62820164601541</v>
       </c>
+      <c r="AD431" t="n">
+        <v>1.01889826542706</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -38939,6 +40234,9 @@
       <c r="AC432" t="n">
         <v>28.7306265701027</v>
       </c>
+      <c r="AD432" t="n">
+        <v>1.040535476418867</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -39028,6 +40326,9 @@
       <c r="AC433" t="n">
         <v>28.83243891734881</v>
       </c>
+      <c r="AD433" t="n">
+        <v>0.9545242029110604</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -39117,6 +40418,9 @@
       <c r="AC434" t="n">
         <v>28.93360797415119</v>
       </c>
+      <c r="AD434" t="n">
+        <v>0.7898932497125247</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -39206,6 +40510,9 @@
       <c r="AC435" t="n">
         <v>29.03410284918946</v>
       </c>
+      <c r="AD435" t="n">
+        <v>0.9111452533381135</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -39295,6 +40602,9 @@
       <c r="AC436" t="n">
         <v>29.13389298343365</v>
       </c>
+      <c r="AD436" t="n">
+        <v>0.7173511027158366</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -39384,6 +40694,9 @@
       <c r="AC437" t="n">
         <v>29.23294970813743</v>
       </c>
+      <c r="AD437" t="n">
+        <v>0.6474669429907439</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -39473,6 +40786,9 @@
       <c r="AC438" t="n">
         <v>29.33124540647782</v>
       </c>
+      <c r="AD438" t="n">
+        <v>0.5289326566877985</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -39562,6 +40878,9 @@
       <c r="AC439" t="n">
         <v>29.42875367650841</v>
       </c>
+      <c r="AD439" t="n">
+        <v>0.6418224531667942</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -39651,6 +40970,9 @@
       <c r="AC440" t="n">
         <v>29.52544972652216</v>
       </c>
+      <c r="AD440" t="n">
+        <v>0.714991765699477</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -39740,6 +41062,9 @@
       <c r="AC441" t="n">
         <v>29.62130862543177</v>
       </c>
+      <c r="AD441" t="n">
+        <v>0.6789297473797971</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -39829,6 +41154,9 @@
       <c r="AC442" t="n">
         <v>29.71630502902281</v>
       </c>
+      <c r="AD442" t="n">
+        <v>0.6715381535627202</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -39918,6 +41246,9 @@
       <c r="AC443" t="n">
         <v>29.81041425750692</v>
       </c>
+      <c r="AD443" t="n">
+        <v>0.6125845931792453</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -40007,6 +41338,9 @@
       <c r="AC444" t="n">
         <v>29.90361196855829</v>
       </c>
+      <c r="AD444" t="n">
+        <v>0.2984418559534676</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -40096,6 +41430,9 @@
       <c r="AC445" t="n">
         <v>29.99587535153903</v>
       </c>
+      <c r="AD445" t="n">
+        <v>0.2629024755804496</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -40185,6 +41522,9 @@
       <c r="AC446" t="n">
         <v>30.08718280735079</v>
       </c>
+      <c r="AD446" t="n">
+        <v>0.3261497077103487</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -40274,6 +41614,9 @@
       <c r="AC447" t="n">
         <v>30.17751380961633</v>
       </c>
+      <c r="AD447" t="n">
+        <v>0.2214295675554903</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -40363,6 +41706,9 @@
       <c r="AC448" t="n">
         <v>30.26684896975025</v>
       </c>
+      <c r="AD448" t="n">
+        <v>0.1963429461157129</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -40452,6 +41798,9 @@
       <c r="AC449" t="n">
         <v>30.35517094293496</v>
       </c>
+      <c r="AD449" t="n">
+        <v>0.1082546958328608</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -40541,6 +41890,9 @@
       <c r="AC450" t="n">
         <v>30.44246502468193</v>
       </c>
+      <c r="AD450" t="n">
+        <v>-0.02858142111137729</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -40630,6 +41982,9 @@
       <c r="AC451" t="n">
         <v>30.52871864212565</v>
       </c>
+      <c r="AD451" t="n">
+        <v>-0.03736173861529908</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -40719,6 +42074,9 @@
       <c r="AC452" t="n">
         <v>30.61392027580292</v>
       </c>
+      <c r="AD452" t="n">
+        <v>-0.1444278551172043</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -40808,6 +42166,9 @@
       <c r="AC453" t="n">
         <v>30.69805851783631</v>
       </c>
+      <c r="AD453" t="n">
+        <v>-0.246484792338115</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -40897,6 +42258,9 @@
       <c r="AC454" t="n">
         <v>30.78112255079535</v>
       </c>
+      <c r="AD454" t="n">
+        <v>-0.3324064707693508</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -40986,6 +42350,9 @@
       <c r="AC455" t="n">
         <v>30.86310201508125</v>
       </c>
+      <c r="AD455" t="n">
+        <v>-0.4327529565284586</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -41075,6 +42442,9 @@
       <c r="AC456" t="n">
         <v>30.94398823113562</v>
       </c>
+      <c r="AD456" t="n">
+        <v>-0.5738652021272038</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -41164,6 +42534,9 @@
       <c r="AC457" t="n">
         <v>31.02377444208475</v>
       </c>
+      <c r="AD457" t="n">
+        <v>-0.7526073798856142</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -41253,6 +42626,9 @@
       <c r="AC458" t="n">
         <v>31.10245423882101</v>
       </c>
+      <c r="AD458" t="n">
+        <v>-0.7708847755060232</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -41342,6 +42718,9 @@
       <c r="AC459" t="n">
         <v>31.18002205596557</v>
       </c>
+      <c r="AD459" t="n">
+        <v>-0.809522652277108</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -41431,6 +42810,9 @@
       <c r="AC460" t="n">
         <v>31.25647468265782</v>
       </c>
+      <c r="AD460" t="n">
+        <v>-0.8001151692371916</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -41520,6 +42902,9 @@
       <c r="AC461" t="n">
         <v>31.33181118582886</v>
       </c>
+      <c r="AD461" t="n">
+        <v>-0.7225637385363433</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -41609,6 +42994,9 @@
       <c r="AC462" t="n">
         <v>31.40603293707562</v>
       </c>
+      <c r="AD462" t="n">
+        <v>-0.5793134286103444</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -41698,6 +43086,9 @@
       <c r="AC463" t="n">
         <v>31.47914180607139</v>
       </c>
+      <c r="AD463" t="n">
+        <v>-0.573937724016106</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -41787,6 +43178,9 @@
       <c r="AC464" t="n">
         <v>31.55113915683381</v>
       </c>
+      <c r="AD464" t="n">
+        <v>-0.6209751392156876</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -41876,6 +43270,9 @@
       <c r="AC465" t="n">
         <v>31.62202548659505</v>
       </c>
+      <c r="AD465" t="n">
+        <v>-0.784038178574238</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -41965,6 +43362,9 @@
       <c r="AC466" t="n">
         <v>31.69180155038338</v>
       </c>
+      <c r="AD466" t="n">
+        <v>-0.7855876463690472</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -42054,6 +43454,9 @@
       <c r="AC467" t="n">
         <v>31.76046873467186</v>
       </c>
+      <c r="AD467" t="n">
+        <v>-0.7272015214705192</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -42143,6 +43546,9 @@
       <c r="AC468" t="n">
         <v>31.82803014508133</v>
       </c>
+      <c r="AD468" t="n">
+        <v>-0.719048369502592</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -42232,6 +43638,9 @@
       <c r="AC469" t="n">
         <v>31.89449002611617</v>
       </c>
+      <c r="AD469" t="n">
+        <v>-0.6406526775032884</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -42321,6 +43730,9 @@
       <c r="AC470" t="n">
         <v>31.95985416078286</v>
       </c>
+      <c r="AD470" t="n">
+        <v>-0.3751526005989829</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -42410,6 +43822,9 @@
       <c r="AC471" t="n">
         <v>32.02412925979434</v>
       </c>
+      <c r="AD471" t="n">
+        <v>-0.3202756161994704</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -42499,6 +43914,9 @@
       <c r="AC472" t="n">
         <v>32.08732171267336</v>
       </c>
+      <c r="AD472" t="n">
+        <v>-0.4087914793477744</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -42588,6 +44006,9 @@
       <c r="AC473" t="n">
         <v>32.14943863815157</v>
       </c>
+      <c r="AD473" t="n">
+        <v>-0.3335316150284444</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -42677,6 +44098,9 @@
       <c r="AC474" t="n">
         <v>32.2104873617405</v>
       </c>
+      <c r="AD474" t="n">
+        <v>-0.2830970531755595</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -42766,6 +44190,9 @@
       <c r="AC475" t="n">
         <v>32.27047697317875</v>
       </c>
+      <c r="AD475" t="n">
+        <v>-0.3971627850345452</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -42855,6 +44282,9 @@
       <c r="AC476" t="n">
         <v>32.32941806780892</v>
       </c>
+      <c r="AD476" t="n">
+        <v>-0.5968702107104831</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -42944,6 +44374,9 @@
       <c r="AC477" t="n">
         <v>32.38732247244464</v>
       </c>
+      <c r="AD477" t="n">
+        <v>-0.6329322290301626</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -43033,6 +44466,9 @@
       <c r="AC478" t="n">
         <v>32.44420287950093</v>
       </c>
+      <c r="AD478" t="n">
+        <v>-0.6823215149897235</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -43122,6 +44558,9 @@
       <c r="AC479" t="n">
         <v>32.50007232287593</v>
       </c>
+      <c r="AD479" t="n">
+        <v>-0.6540990658699746</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -43211,6 +44650,9 @@
       <c r="AC480" t="n">
         <v>32.55494337643483</v>
       </c>
+      <c r="AD480" t="n">
+        <v>-0.5150773720578772</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -43300,6 +44742,9 @@
       <c r="AC481" t="n">
         <v>32.6088273164689</v>
       </c>
+      <c r="AD481" t="n">
+        <v>-0.3952887546829422</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -43389,6 +44834,9 @@
       <c r="AC482" t="n">
         <v>32.6617350698867</v>
       </c>
+      <c r="AD482" t="n">
+        <v>-0.3295585485079429</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -43478,6 +44926,9 @@
       <c r="AC483" t="n">
         <v>32.71367734439667</v>
       </c>
+      <c r="AD483" t="n">
+        <v>-0.2408288789269132</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -43567,6 +45018,9 @@
       <c r="AC484" t="n">
         <v>32.76466515649317</v>
       </c>
+      <c r="AD484" t="n">
+        <v>0.04892159870250985</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -43656,6 +45110,9 @@
       <c r="AC485" t="n">
         <v>32.81471014683868</v>
       </c>
+      <c r="AD485" t="n">
+        <v>0.09177791032879543</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -43745,6 +45202,9 @@
       <c r="AC486" t="n">
         <v>32.8638233556108</v>
       </c>
+      <c r="AD486" t="n">
+        <v>0.2689521742472205</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -43834,6 +45294,9 @@
       <c r="AC487" t="n">
         <v>32.91201520602205</v>
       </c>
+      <c r="AD487" t="n">
+        <v>0.4627463248694964</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -43923,6 +45386,9 @@
       <c r="AC488" t="n">
         <v>32.95929434249851</v>
       </c>
+      <c r="AD488" t="n">
+        <v>0.4837604428287907</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -44012,6 +45478,9 @@
       <c r="AC489" t="n">
         <v>33.00566675591832</v>
       </c>
+      <c r="AD489" t="n">
+        <v>0.6323559135729231</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -44101,6 +45570,9 @@
       <c r="AC490" t="n">
         <v>33.02641751623325</v>
       </c>
+      <c r="AD490" t="n">
+        <v>0.7849661939982328</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -44190,6 +45662,9 @@
       <c r="AC491" t="n">
         <v>33.04609886216488</v>
       </c>
+      <c r="AD491" t="n">
+        <v>1.004474131596282</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -44279,6 +45754,9 @@
       <c r="AC492" t="n">
         <v>33.06473624001127</v>
       </c>
+      <c r="AD492" t="n">
+        <v>0.9524764071574708</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -44368,6 +45846,9 @@
       <c r="AC493" t="n">
         <v>33.08235659851051</v>
       </c>
+      <c r="AD493" t="n">
+        <v>1.065610553845296</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -44457,6 +45938,9 @@
       <c r="AC494" t="n">
         <v>33.0989886455523</v>
       </c>
+      <c r="AD494" t="n">
+        <v>1.096520855262165</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -44546,6 +46030,9 @@
       <c r="AC495" t="n">
         <v>33.11466211871159</v>
       </c>
+      <c r="AD495" t="n">
+        <v>1.228225617820993</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -44635,6 +46122,9 @@
       <c r="AC496" t="n">
         <v>33.12940660237247</v>
       </c>
+      <c r="AD496" t="n">
+        <v>1.337557962730273</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -44724,6 +46214,9 @@
       <c r="AC497" t="n">
         <v>33.14325195801726</v>
       </c>
+      <c r="AD497" t="n">
+        <v>1.345094952066346</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -44813,6 +46306,9 @@
       <c r="AC498" t="n">
         <v>33.15622797386732</v>
       </c>
+      <c r="AD498" t="n">
+        <v>1.368927242434134</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -44902,6 +46398,9 @@
       <c r="AC499" t="n">
         <v>33.16836444568543</v>
       </c>
+      <c r="AD499" t="n">
+        <v>1.245846005995228</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -44991,6 +46490,9 @@
       <c r="AC500" t="n">
         <v>33.17969039813089</v>
       </c>
+      <c r="AD500" t="n">
+        <v>1.039777329882775</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -45080,6 +46582,9 @@
       <c r="AC501" t="n">
         <v>33.19023448790472</v>
       </c>
+      <c r="AD501" t="n">
+        <v>0.9306505266197453</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -45169,6 +46674,9 @@
       <c r="AC502" t="n">
         <v>33.20002474794297</v>
       </c>
+      <c r="AD502" t="n">
+        <v>0.9768327160884257</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -45258,6 +46766,9 @@
       <c r="AC503" t="n">
         <v>33.20908817224142</v>
       </c>
+      <c r="AD503" t="n">
+        <v>0.8410961750839184</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -45347,6 +46858,9 @@
       <c r="AC504" t="n">
         <v>33.21745129199955</v>
       </c>
+      <c r="AD504" t="n">
+        <v>0.8941439266701134</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -45436,6 +46950,9 @@
       <c r="AC505" t="n">
         <v>33.22514016976692</v>
       </c>
+      <c r="AD505" t="n">
+        <v>0.9831230370893228</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -45525,6 +47042,9 @@
       <c r="AC506" t="n">
         <v>33.23218015157425</v>
       </c>
+      <c r="AD506" t="n">
+        <v>0.9965622985749175</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -45614,6 +47134,9 @@
       <c r="AC507" t="n">
         <v>33.23859589078193</v>
       </c>
+      <c r="AD507" t="n">
+        <v>1.159625337933467</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -45703,6 +47226,9 @@
       <c r="AC508" t="n">
         <v>33.24441111059366</v>
       </c>
+      <c r="AD508" t="n">
+        <v>1.212150451572999</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -45792,6 +47318,9 @@
       <c r="AC509" t="n">
         <v>33.24964836231206</v>
       </c>
+      <c r="AD509" t="n">
+        <v>1.293681971252274</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -45881,6 +47410,9 @@
       <c r="AC510" t="n">
         <v>33.25432917751787</v>
       </c>
+      <c r="AD510" t="n">
+        <v>1.314587489118756</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -45970,6 +47502,9 @@
       <c r="AC511" t="n">
         <v>33.25847379710461</v>
       </c>
+      <c r="AD511" t="n">
+        <v>1.36299326548778</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -46059,6 +47594,9 @@
       <c r="AC512" t="n">
         <v>33.2621010587491</v>
       </c>
+      <c r="AD512" t="n">
+        <v>1.423928098814509</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -46148,6 +47686,9 @@
       <c r="AC513" t="n">
         <v>33.26522843284003</v>
       </c>
+      <c r="AD513" t="n">
+        <v>1.407987641441319</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -46237,6 +47778,9 @@
       <c r="AC514" t="n">
         <v>33.2678725099955</v>
       </c>
+      <c r="AD514" t="n">
+        <v>1.232773269822877</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -46326,6 +47870,9 @@
       <c r="AC515" t="n">
         <v>33.27004980883663</v>
       </c>
+      <c r="AD515" t="n">
+        <v>1.340436686835254</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -46415,6 +47962,9 @@
       <c r="AC516" t="n">
         <v>33.27177620196404</v>
       </c>
+      <c r="AD516" t="n">
+        <v>1.364582559971039</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -46504,6 +48054,9 @@
       <c r="AC517" t="n">
         <v>33.27306707516895</v>
       </c>
+      <c r="AD517" t="n">
+        <v>1.348276256035184</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -46593,6 +48146,9 @@
       <c r="AC518" t="n">
         <v>33.27393743725868</v>
       </c>
+      <c r="AD518" t="n">
+        <v>1.404419309899069</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -46682,6 +48238,9 @@
       <c r="AC519" t="n">
         <v>33.2744021272277</v>
       </c>
+      <c r="AD519" t="n">
+        <v>1.356282318759757</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -46771,6 +48330,9 @@
       <c r="AC520" t="n">
         <v>33.27447532953573</v>
       </c>
+      <c r="AD520" t="n">
+        <v>1.313241546681707</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -46860,6 +48422,9 @@
       <c r="AC521" t="n">
         <v>33.27417019573222</v>
       </c>
+      <c r="AD521" t="n">
+        <v>1.025372565660267</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -46949,6 +48514,9 @@
       <c r="AC522" t="n">
         <v>33.27349903448056</v>
       </c>
+      <c r="AD522" t="n">
+        <v>1.002324232212473</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -47038,6 +48606,9 @@
       <c r="AC523" t="n">
         <v>33.27247389000219</v>
       </c>
+      <c r="AD523" t="n">
+        <v>0.8733989532790742</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -47127,6 +48698,9 @@
       <c r="AC524" t="n">
         <v>33.27110600713028</v>
       </c>
+      <c r="AD524" t="n">
+        <v>0.8169540550395753</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -47216,6 +48790,9 @@
       <c r="AC525" t="n">
         <v>33.26940511541636</v>
       </c>
+      <c r="AD525" t="n">
+        <v>0.7093710438651478</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -47305,6 +48882,9 @@
       <c r="AC526" t="n">
         <v>33.26738034532042</v>
       </c>
+      <c r="AD526" t="n">
+        <v>0.5858520133020911</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -47394,6 +48974,9 @@
       <c r="AC527" t="n">
         <v>33.26504031520261</v>
       </c>
+      <c r="AD527" t="n">
+        <v>0.4737874346336134</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -47483,6 +49066,9 @@
       <c r="AC528" t="n">
         <v>33.26239303511116</v>
       </c>
+      <c r="AD528" t="n">
+        <v>0.4951110628574241</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -47572,6 +49158,9 @@
       <c r="AC529" t="n">
         <v>33.25944618681951</v>
       </c>
+      <c r="AD529" t="n">
+        <v>0.5927572525587774</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -47661,6 +49250,9 @@
       <c r="AC530" t="n">
         <v>33.25620737165751</v>
       </c>
+      <c r="AD530" t="n">
+        <v>0.6424265231326216</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -47750,6 +49342,9 @@
       <c r="AC531" t="n">
         <v>33.25268406241901</v>
       </c>
+      <c r="AD531" t="n">
+        <v>0.6563025606164986</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -47839,6 +49434,9 @@
       <c r="AC532" t="n">
         <v>33.24888396205672</v>
       </c>
+      <c r="AD532" t="n">
+        <v>0.5892742439570945</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -47928,6 +49526,9 @@
       <c r="AC533" t="n">
         <v>33.24481473890791</v>
       </c>
+      <c r="AD533" t="n">
+        <v>0.5901701947228009</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -48017,6 +49618,9 @@
       <c r="AC534" t="n">
         <v>33.24048419366414</v>
       </c>
+      <c r="AD534" t="n">
+        <v>0.6046174008198155</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -48106,6 +49710,9 @@
       <c r="AC535" t="n">
         <v>33.23589936924283</v>
       </c>
+      <c r="AD535" t="n">
+        <v>0.5983457454598713</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -48195,6 +49802,9 @@
       <c r="AC536" t="n">
         <v>33.23106649591621</v>
       </c>
+      <c r="AD536" t="n">
+        <v>0.535959278984636</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -48284,6 +49894,9 @@
       <c r="AC537" t="n">
         <v>33.22599082115119</v>
       </c>
+      <c r="AD537" t="n">
+        <v>0.3572171012262262</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -48373,6 +49986,9 @@
       <c r="AC538" t="n">
         <v>33.22067692978843</v>
       </c>
+      <c r="AD538" t="n">
+        <v>0.2745452805724155</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -48462,6 +50078,9 @@
       <c r="AC539" t="n">
         <v>33.21512920581573</v>
       </c>
+      <c r="AD539" t="n">
+        <v>0.2193547134049062</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -48551,6 +50170,9 @@
       <c r="AC540" t="n">
         <v>33.20935231085893</v>
       </c>
+      <c r="AD540" t="n">
+        <v>0.1679753829561325</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -48640,6 +50262,9 @@
       <c r="AC541" t="n">
         <v>33.20335120414575</v>
       </c>
+      <c r="AD541" t="n">
+        <v>0.1452833935628792</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -48729,6 +50354,9 @@
       <c r="AC542" t="n">
         <v>33.19713054050495</v>
       </c>
+      <c r="AD542" t="n">
+        <v>0.1112596632351824</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -48818,6 +50446,9 @@
       <c r="AC543" t="n">
         <v>33.19069532462078</v>
       </c>
+      <c r="AD543" t="n">
+        <v>0.209515597207642</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -48907,6 +50538,9 @@
       <c r="AC544" t="n">
         <v>33.18405057227882</v>
       </c>
+      <c r="AD544" t="n">
+        <v>0.1228883575484121</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -48996,6 +50630,9 @@
       <c r="AC545" t="n">
         <v>33.17720160787951</v>
       </c>
+      <c r="AD545" t="n">
+        <v>0.151110806668161</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -49085,6 +50722,9 @@
       <c r="AC546" t="n">
         <v>33.17015414162034</v>
       </c>
+      <c r="AD546" t="n">
+        <v>0.09090291521269603</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -49174,6 +50814,9 @@
       <c r="AC547" t="n">
         <v>33.16291378603282</v>
       </c>
+      <c r="AD547" t="n">
+        <v>-0.09599241451364113</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -49263,6 +50906,9 @@
       <c r="AC548" t="n">
         <v>33.15548628478429</v>
       </c>
+      <c r="AD548" t="n">
+        <v>-0.04480463914939087</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -49352,6 +50998,9 @@
       <c r="AC549" t="n">
         <v>33.14787726420813</v>
       </c>
+      <c r="AD549" t="n">
+        <v>-0.1335037649543166</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -49441,6 +51090,9 @@
       <c r="AC550" t="n">
         <v>33.14009230168218</v>
       </c>
+      <c r="AD550" t="n">
+        <v>-0.177220892022163</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -49530,6 +51182,9 @@
       <c r="AC551" t="n">
         <v>33.13213707657043</v>
       </c>
+      <c r="AD551" t="n">
+        <v>-0.1437815659439147</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -49619,6 +51274,9 @@
       <c r="AC552" t="n">
         <v>33.12401759720862</v>
       </c>
+      <c r="AD552" t="n">
+        <v>-0.09728689015048179</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -49708,6 +51366,9 @@
       <c r="AC553" t="n">
         <v>33.11573975892443</v>
       </c>
+      <c r="AD553" t="n">
+        <v>-0.07215900782017912</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -49797,6 +51458,9 @@
       <c r="AC554" t="n">
         <v>33.10730889237193</v>
       </c>
+      <c r="AD554" t="n">
+        <v>-0.08022256471153595</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -49886,6 +51550,9 @@
       <c r="AC555" t="n">
         <v>33.09872937531119</v>
       </c>
+      <c r="AD555" t="n">
+        <v>-0.07612186697618782</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -49975,6 +51642,9 @@
       <c r="AC556" t="n">
         <v>33.0900051979502</v>
       </c>
+      <c r="AD556" t="n">
+        <v>-0.04951484423703073</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -50064,6 +51734,9 @@
       <c r="AC557" t="n">
         <v>33.08114069359143</v>
       </c>
+      <c r="AD557" t="n">
+        <v>-0.05151037094246689</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -50153,6 +51826,9 @@
       <c r="AC558" t="n">
         <v>33.07213959605377</v>
       </c>
+      <c r="AD558" t="n">
+        <v>-0.1048194415019931</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -50242,6 +51918,9 @@
       <c r="AC559" t="n">
         <v>33.06300495180876</v>
       </c>
+      <c r="AD559" t="n">
+        <v>-0.1671875698036603</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -50331,6 +52010,9 @@
       <c r="AC560" t="n">
         <v>33.05373936253815</v>
       </c>
+      <c r="AD560" t="n">
+        <v>0.08328666613411219</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -50420,6 +52102,9 @@
       <c r="AC561" t="n">
         <v>33.04434549128277</v>
       </c>
+      <c r="AD561" t="n">
+        <v>0.06878346311424115</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -50509,6 +52194,9 @@
       <c r="AC562" t="n">
         <v>33.0348258110873</v>
       </c>
+      <c r="AD562" t="n">
+        <v>0.2110716440929758</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -50598,6 +52286,9 @@
       <c r="AC563" t="n">
         <v>33.02518267161463</v>
       </c>
+      <c r="AD563" t="n">
+        <v>0.2683004992524668</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -50687,6 +52378,9 @@
       <c r="AC564" t="n">
         <v>33.01541752245454</v>
       </c>
+      <c r="AD564" t="n">
+        <v>0.1150929183166864</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -50776,6 +52470,9 @@
       <c r="AC565" t="n">
         <v>33.00553147720701</v>
       </c>
+      <c r="AD565" t="n">
+        <v>0.08373464151696484</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -50865,6 +52562,9 @@
       <c r="AC566" t="n">
         <v>32.9955262142007</v>
       </c>
+      <c r="AD566" t="n">
+        <v>0.1696398155919907</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -50954,6 +52654,9 @@
       <c r="AC567" t="n">
         <v>32.98540334832292</v>
       </c>
+      <c r="AD567" t="n">
+        <v>0.1837510401518649</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -51043,6 +52746,9 @@
       <c r="AC568" t="n">
         <v>32.97516436388537</v>
       </c>
+      <c r="AD568" t="n">
+        <v>0.1221747875269577</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -51132,6 +52838,9 @@
       <c r="AC569" t="n">
         <v>32.96481100176065</v>
       </c>
+      <c r="AD569" t="n">
+        <v>0.1221747875269582</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -51221,6 +52930,9 @@
       <c r="AC570" t="n">
         <v>32.95434513952766</v>
       </c>
+      <c r="AD570" t="n">
+        <v>0.1759059887357114</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -51310,6 +53022,9 @@
       <c r="AC571" t="n">
         <v>32.94376900515918</v>
       </c>
+      <c r="AD571" t="n">
+        <v>0.214969442120506</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -51399,6 +53114,9 @@
       <c r="AC572" t="n">
         <v>32.93308460220978</v>
       </c>
+      <c r="AD572" t="n">
+        <v>0.2254744648484127</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -51488,6 +53206,9 @@
       <c r="AC573" t="n">
         <v>32.92229398086197</v>
       </c>
+      <c r="AD573" t="n">
+        <v>0.1102327976094376</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -51577,6 +53298,9 @@
       <c r="AC574" t="n">
         <v>32.91139926009095</v>
       </c>
+      <c r="AD574" t="n">
+        <v>0.1023932284095081</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -51666,6 +53390,9 @@
       <c r="AC575" t="n">
         <v>32.90040315524625</v>
       </c>
+      <c r="AD575" t="n">
+        <v>-0.06066981094904231</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -51755,6 +53482,9 @@
       <c r="AC576" t="n">
         <v>32.88930908891317</v>
       </c>
+      <c r="AD576" t="n">
+        <v>0.02817863998350095</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -51844,6 +53574,9 @@
       <c r="AC577" t="n">
         <v>32.87812122134574</v>
       </c>
+      <c r="AD577" t="n">
+        <v>0.1640645061156263</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -51933,6 +53666,9 @@
       <c r="AC578" t="n">
         <v>32.86684416634649</v>
       </c>
+      <c r="AD578" t="n">
+        <v>0.1605366999756573</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -52022,6 +53758,9 @@
       <c r="AC579" t="n">
         <v>32.85548240134359</v>
       </c>
+      <c r="AD579" t="n">
+        <v>0.2713359446680053</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -52111,6 +53850,9 @@
       <c r="AC580" t="n">
         <v>32.84404107273311</v>
       </c>
+      <c r="AD580" t="n">
+        <v>0.242006732837678</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -52200,6 +53942,9 @@
       <c r="AC581" t="n">
         <v>32.83252514935127</v>
       </c>
+      <c r="AD581" t="n">
+        <v>0.314871965110484</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -52289,6 +54034,9 @@
       <c r="AC582" t="n">
         <v>32.82094020738606</v>
       </c>
+      <c r="AD582" t="n">
+        <v>0.3278012238525229</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -52378,6 +54126,9 @@
       <c r="AC583" t="n">
         <v>32.80929138501541</v>
       </c>
+      <c r="AD583" t="n">
+        <v>0.3332476614019481</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -52467,6 +54218,9 @@
       <c r="AC584" t="n">
         <v>32.79758371251263</v>
       </c>
+      <c r="AD584" t="n">
+        <v>0.4214092167474502</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -52556,6 +54310,9 @@
       <c r="AC585" t="n">
         <v>32.78582243633814</v>
       </c>
+      <c r="AD585" t="n">
+        <v>0.5468423239463344</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -52645,6 +54402,9 @@
       <c r="AC586" t="n">
         <v>32.77401356530956</v>
       </c>
+      <c r="AD586" t="n">
+        <v>0.7376051744779728</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -52734,6 +54494,9 @@
       <c r="AC587" t="n">
         <v>32.76216325251471</v>
       </c>
+      <c r="AD587" t="n">
+        <v>0.8154877310387344</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -52823,6 +54586,9 @@
       <c r="AC588" t="n">
         <v>32.75027693048192</v>
       </c>
+      <c r="AD588" t="n">
+        <v>0.8447004415311052</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -52912,6 +54678,9 @@
       <c r="AC589" t="n">
         <v>32.73836006413538</v>
       </c>
+      <c r="AD589" t="n">
+        <v>0.8936193533386708</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -53001,6 +54770,9 @@
       <c r="AC590" t="n">
         <v>32.72641811351209</v>
       </c>
+      <c r="AD590" t="n">
+        <v>0.6839668741633921</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -53090,6 +54862,9 @@
       <c r="AC591" t="n">
         <v>32.71445632832322</v>
       </c>
+      <c r="AD591" t="n">
+        <v>0.7161091078831068</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -53179,6 +54954,9 @@
       <c r="AC592" t="n">
         <v>32.70247984491221</v>
       </c>
+      <c r="AD592" t="n">
+        <v>0.6921627874178639</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -53268,6 +55046,9 @@
       <c r="AC593" t="n">
         <v>32.69049417331189</v>
       </c>
+      <c r="AD593" t="n">
+        <v>0.7516564070128916</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -53357,6 +55138,9 @@
       <c r="AC594" t="n">
         <v>32.67850540538755</v>
       </c>
+      <c r="AD594" t="n">
+        <v>0.9962509660507167</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -53446,6 +55230,9 @@
       <c r="AC595" t="n">
         <v>32.66651951726167</v>
       </c>
+      <c r="AD595" t="n">
+        <v>1.101113043668983</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -53535,6 +55322,9 @@
       <c r="AC596" t="n">
         <v>32.6545419106083</v>
       </c>
+      <c r="AD596" t="n">
+        <v>1.155542052685642</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -53624,6 +55414,9 @@
       <c r="AC597" t="n">
         <v>32.64257684083161</v>
       </c>
+      <c r="AD597" t="n">
+        <v>1.520865977402394</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -53713,6 +55506,9 @@
       <c r="AC598" t="n">
         <v>32.63062703318595</v>
       </c>
+      <c r="AD598" t="n">
+        <v>1.638182824723704</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -53802,6 +55598,9 @@
       <c r="AC599" t="n">
         <v>32.61869467867349</v>
       </c>
+      <c r="AD599" t="n">
+        <v>1.630656838291771</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -53891,6 +55690,9 @@
       <c r="AC600" t="n">
         <v>32.60678142950439</v>
       </c>
+      <c r="AD600" t="n">
+        <v>1.587539207692154</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -53980,6 +55782,9 @@
       <c r="AC601" t="n">
         <v>32.594888900809</v>
       </c>
+      <c r="AD601" t="n">
+        <v>1.509591491075703</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -54069,6 +55874,9 @@
       <c r="AC602" t="n">
         <v>32.58301899778589</v>
       </c>
+      <c r="AD602" t="n">
+        <v>1.522918758715585</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -54158,6 +55966,9 @@
       <c r="AC603" t="n">
         <v>32.57117408821111</v>
       </c>
+      <c r="AD603" t="n">
+        <v>1.595826752274937</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -54247,6 +56058,9 @@
       <c r="AC604" t="n">
         <v>32.55935588367398</v>
       </c>
+      <c r="AD604" t="n">
+        <v>1.604450278394861</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -54336,6 +56150,9 @@
       <c r="AC605" t="n">
         <v>32.54756440368178</v>
       </c>
+      <c r="AD605" t="n">
+        <v>1.66403100431433</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -54425,6 +56242,9 @@
       <c r="AC606" t="n">
         <v>32.5357990754243</v>
       </c>
+      <c r="AD606" t="n">
+        <v>1.586680588208352</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -54514,6 +56334,9 @@
       <c r="AC607" t="n">
         <v>32.52405967935002</v>
       </c>
+      <c r="AD607" t="n">
+        <v>1.566193180699201</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -54603,6 +56426,9 @@
       <c r="AC608" t="n">
         <v>32.51234575460216</v>
       </c>
+      <c r="AD608" t="n">
+        <v>1.508572347079714</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -54692,6 +56518,9 @@
       <c r="AC609" t="n">
         <v>32.50065580739749</v>
       </c>
+      <c r="AD609" t="n">
+        <v>1.438090886844149</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -54781,6 +56610,9 @@
       <c r="AC610" t="n">
         <v>32.48898794900614</v>
       </c>
+      <c r="AD610" t="n">
+        <v>1.622643568833096</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -54870,6 +56702,9 @@
       <c r="AC611" t="n">
         <v>32.47733964660044</v>
       </c>
+      <c r="AD611" t="n">
+        <v>1.730516041024137</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -54959,6 +56794,9 @@
       <c r="AC612" t="n">
         <v>32.46570774604245</v>
       </c>
+      <c r="AD612" t="n">
+        <v>1.832027262778663</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -55048,6 +56886,9 @@
       <c r="AC613" t="n">
         <v>32.45408845663525</v>
       </c>
+      <c r="AD613" t="n">
+        <v>1.882827671194212</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -55137,6 +56978,9 @@
       <c r="AC614" t="n">
         <v>32.44247755829173</v>
       </c>
+      <c r="AD614" t="n">
+        <v>1.798473906602962</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -55226,6 +57070,9 @@
       <c r="AC615" t="n">
         <v>32.43087037161501</v>
       </c>
+      <c r="AD615" t="n">
+        <v>1.703353800310475</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -55315,6 +57162,9 @@
       <c r="AC616" t="n">
         <v>32.41926227099074</v>
       </c>
+      <c r="AD616" t="n">
+        <v>1.697395727718528</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -55404,6 +57254,9 @@
       <c r="AC617" t="n">
         <v>32.40764865761574</v>
       </c>
+      <c r="AD617" t="n">
+        <v>1.709311872902422</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -55493,6 +57346,9 @@
       <c r="AC618" t="n">
         <v>32.39602514146791</v>
       </c>
+      <c r="AD618" t="n">
+        <v>1.807100183448921</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -55582,6 +57438,9 @@
       <c r="AC619" t="n">
         <v>32.38438773772392</v>
       </c>
+      <c r="AD619" t="n">
+        <v>1.932219707879808</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -55671,6 +57530,9 @@
       <c r="AC620" t="n">
         <v>32.37273262789581</v>
       </c>
+      <c r="AD620" t="n">
+        <v>1.798499056098139</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -55760,6 +57622,9 @@
       <c r="AC621" t="n">
         <v>32.36105568508763</v>
       </c>
+      <c r="AD621" t="n">
+        <v>1.74306210247006</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -55849,6 +57714,9 @@
       <c r="AC622" t="n">
         <v>32.34935268285894</v>
       </c>
+      <c r="AD622" t="n">
+        <v>1.649414884936347</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -55938,6 +57806,9 @@
       <c r="AC623" t="n">
         <v>32.33761944515425</v>
       </c>
+      <c r="AD623" t="n">
+        <v>1.77101531385971</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -56027,6 +57898,9 @@
       <c r="AC624" t="n">
         <v>32.32585172461029</v>
       </c>
+      <c r="AD624" t="n">
+        <v>1.725859395268113</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -56116,6 +57990,9 @@
       <c r="AC625" t="n">
         <v>32.31404478084319</v>
       </c>
+      <c r="AD625" t="n">
+        <v>1.544483122258526</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -56205,6 +58082,9 @@
       <c r="AC626" t="n">
         <v>32.30219344234506</v>
       </c>
+      <c r="AD626" t="n">
+        <v>1.452424181082202</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -56294,6 +58174,9 @@
       <c r="AC627" t="n">
         <v>32.29029240997641</v>
       </c>
+      <c r="AD627" t="n">
+        <v>1.148248896124907</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -56383,6 +58266,9 @@
       <c r="AC628" t="n">
         <v>32.27833554390518</v>
       </c>
+      <c r="AD628" t="n">
+        <v>1.260474634977555</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -56472,6 +58358,9 @@
       <c r="AC629" t="n">
         <v>32.26631622342022</v>
       </c>
+      <c r="AD629" t="n">
+        <v>1.256293531404259</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -56561,6 +58450,9 @@
       <c r="AC630" t="n">
         <v>32.25422730020983</v>
       </c>
+      <c r="AD630" t="n">
+        <v>1.18820127321058</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -56650,6 +58542,9 @@
       <c r="AC631" t="n">
         <v>32.24206124992546</v>
       </c>
+      <c r="AD631" t="n">
+        <v>1.26346113752991</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -56739,6 +58634,9 @@
       <c r="AC632" t="n">
         <v>32.22981066800366</v>
       </c>
+      <c r="AD632" t="n">
+        <v>1.159351658554837</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -56828,6 +58726,9 @@
       <c r="AC633" t="n">
         <v>32.21746857635217</v>
       </c>
+      <c r="AD633" t="n">
+        <v>0.9947207053563001</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -56917,6 +58818,9 @@
       <c r="AC634" t="n">
         <v>32.20502803807213</v>
       </c>
+      <c r="AD634" t="n">
+        <v>0.9664982562365516</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -57006,6 +58910,9 @@
       <c r="AC635" t="n">
         <v>32.19248204654064</v>
       </c>
+      <c r="AD635" t="n">
+        <v>0.9194608410369696</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -57095,6 +59002,9 @@
       <c r="AC636" t="n">
         <v>32.17982386097889</v>
       </c>
+      <c r="AD636" t="n">
+        <v>0.829567114211101</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -57184,6 +59094,9 @@
       <c r="AC637" t="n">
         <v>32.16704680298481</v>
       </c>
+      <c r="AD637" t="n">
+        <v>0.8157694724192235</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -57273,6 +59186,9 @@
       <c r="AC638" t="n">
         <v>32.1541442858178</v>
       </c>
+      <c r="AD638" t="n">
+        <v>0.740509608099893</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -57362,6 +59278,9 @@
       <c r="AC639" t="n">
         <v>32.14111002587781</v>
       </c>
+      <c r="AD639" t="n">
+        <v>0.7670894808158474</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -57451,6 +59370,9 @@
       <c r="AC640" t="n">
         <v>32.12793773353979</v>
       </c>
+      <c r="AD640" t="n">
+        <v>0.6315362024679618</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -57540,6 +59462,9 @@
       <c r="AC641" t="n">
         <v>32.11462049976095</v>
       </c>
+      <c r="AD641" t="n">
+        <v>0.4828083753607135</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -57629,6 +59554,9 @@
       <c r="AC642" t="n">
         <v>32.10115083903278</v>
       </c>
+      <c r="AD642" t="n">
+        <v>0.2756197607911268</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -57718,6 +59646,9 @@
       <c r="AC643" t="n">
         <v>32.08752113103377</v>
       </c>
+      <c r="AD643" t="n">
+        <v>0.1652386264561087</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -57807,6 +59738,9 @@
       <c r="AC644" t="n">
         <v>32.0737241012615</v>
       </c>
+      <c r="AD644" t="n">
+        <v>0.1345523127306671</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -57896,6 +59830,9 @@
       <c r="AC645" t="n">
         <v>32.05975294165437</v>
       </c>
+      <c r="AD645" t="n">
+        <v>0.2070944597273559</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -57985,6 +59922,9 @@
       <c r="AC646" t="n">
         <v>32.0456008794781</v>
       </c>
+      <c r="AD646" t="n">
+        <v>0.09937877892031394</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -58074,6 +60014,9 @@
       <c r="AC647" t="n">
         <v>32.03126052418683</v>
       </c>
+      <c r="AD647" t="n">
+        <v>0.02277498845242348</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -58163,6 +60106,9 @@
       <c r="AC648" t="n">
         <v>32.01672418013482</v>
       </c>
+      <c r="AD648" t="n">
+        <v>-0.06928395272390066</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -58252,6 +60198,9 @@
       <c r="AC649" t="n">
         <v>32.00198400930454</v>
       </c>
+      <c r="AD649" t="n">
+        <v>-0.2292111644024789</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -58341,6 +60290,9 @@
       <c r="AC650" t="n">
         <v>31.98703201582862</v>
       </c>
+      <c r="AD650" t="n">
+        <v>-0.2188629330585704</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -58430,6 +60382,9 @@
       <c r="AC651" t="n">
         <v>31.9718603051043</v>
       </c>
+      <c r="AD651" t="n">
+        <v>-0.06027964752855254</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -58519,6 +60474,9 @@
       <c r="AC652" t="n">
         <v>31.95646129346297</v>
       </c>
+      <c r="AD652" t="n">
+        <v>-0.1120208042480925</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -58608,6 +60566,9 @@
       <c r="AC653" t="n">
         <v>31.94082741676187</v>
       </c>
+      <c r="AD653" t="n">
+        <v>-0.2405897391269492</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -58697,6 +60658,9 @@
       <c r="AC654" t="n">
         <v>31.92495184635107</v>
       </c>
+      <c r="AD654" t="n">
+        <v>-0.3120866102303131</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -58786,6 +60750,9 @@
       <c r="AC655" t="n">
         <v>31.90882818412035</v>
       </c>
+      <c r="AD655" t="n">
+        <v>-0.2773834505719553</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -58875,6 +60842,9 @@
       <c r="AC656" t="n">
         <v>31.89245057214034</v>
       </c>
+      <c r="AD656" t="n">
+        <v>-0.05630759913392125</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -58964,6 +60934,9 @@
       <c r="AC657" t="n">
         <v>31.87581342607131</v>
       </c>
+      <c r="AD657" t="n">
+        <v>-0.01867766697425551</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -59053,6 +61026,9 @@
       <c r="AC658" t="n">
         <v>31.85891029735608</v>
       </c>
+      <c r="AD658" t="n">
+        <v>-0.1329785859092389</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -59142,6 +61118,9 @@
       <c r="AC659" t="n">
         <v>31.84173409757112</v>
       </c>
+      <c r="AD659" t="n">
+        <v>-0.07862423945638927</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -59231,6 +61210,9 @@
       <c r="AC660" t="n">
         <v>31.82427777159747</v>
       </c>
+      <c r="AD660" t="n">
+        <v>-0.01492214001466946</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -59320,6 +61302,9 @@
       <c r="AC661" t="n">
         <v>31.80653482408731</v>
       </c>
+      <c r="AD661" t="n">
+        <v>-0.09824556122535778</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -59409,6 +61394,9 @@
       <c r="AC662" t="n">
         <v>31.78849869212914</v>
       </c>
+      <c r="AD662" t="n">
+        <v>-0.08695658157745791</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -59498,6 +61486,9 @@
       <c r="AC663" t="n">
         <v>31.77016153705763</v>
       </c>
+      <c r="AD663" t="n">
+        <v>-0.05403039093775107</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -59587,6 +61578,9 @@
       <c r="AC664" t="n">
         <v>31.75151403020005</v>
       </c>
+      <c r="AD664" t="n">
+        <v>-0.06265391705767423</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -59676,6 +61670,9 @@
       <c r="AC665" t="n">
         <v>31.7325467234697</v>
       </c>
+      <c r="AD665" t="n">
+        <v>-0.0344314679379253</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -59765,6 +61762,9 @@
       <c r="AC666" t="n">
         <v>31.71325041022717</v>
       </c>
+      <c r="AD666" t="n">
+        <v>0.2603363339794534</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -59854,6 +61854,9 @@
       <c r="AC667" t="n">
         <v>31.6936158818796</v>
       </c>
+      <c r="AD667" t="n">
+        <v>0.3986263346662237</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -59943,6 +61946,9 @@
       <c r="AC668" t="n">
         <v>31.67363464385007</v>
       </c>
+      <c r="AD668" t="n">
+        <v>0.5696714808465208</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -60032,6 +62038,9 @@
       <c r="AC669" t="n">
         <v>31.65329884200661</v>
       </c>
+      <c r="AD669" t="n">
+        <v>0.4678317438112369</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -60121,6 +62130,9 @@
       <c r="AC670" t="n">
         <v>31.63260072393992</v>
       </c>
+      <c r="AD670" t="n">
+        <v>0.3371532521294889</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -60210,6 +62222,9 @@
       <c r="AC671" t="n">
         <v>31.61153200128108</v>
       </c>
+      <c r="AD671" t="n">
+        <v>0.2764077902146008</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -60299,6 +62314,9 @@
       <c r="AC672" t="n">
         <v>31.59008402990249</v>
       </c>
+      <c r="AD672" t="n">
+        <v>0.2144751935351514</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -60388,6 +62406,9 @@
       <c r="AC673" t="n">
         <v>31.56824812671337</v>
       </c>
+      <c r="AD673" t="n">
+        <v>0.170573606015542</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -60477,6 +62498,9 @@
       <c r="AC674" t="n">
         <v>31.54601596164199</v>
       </c>
+      <c r="AD674" t="n">
+        <v>0.3094459747000218</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -60566,6 +62590,9 @@
       <c r="AC675" t="n">
         <v>31.5233793759113</v>
       </c>
+      <c r="AD675" t="n">
+        <v>0.2796108142020006</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -60655,6 +62682,9 @@
       <c r="AC676" t="n">
         <v>31.50033006319653</v>
       </c>
+      <c r="AD676" t="n">
+        <v>0.2702033311620843</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -60744,6 +62774,9 @@
       <c r="AC677" t="n">
         <v>31.47685983132364</v>
       </c>
+      <c r="AD677" t="n">
+        <v>0.266320877844024</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -60833,6 +62866,9 @@
       <c r="AC678" t="n">
         <v>31.45296098721499</v>
       </c>
+      <c r="AD678" t="n">
+        <v>0.2721445578211145</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -60922,6 +62958,9 @@
       <c r="AC679" t="n">
         <v>31.42862580425358</v>
       </c>
+      <c r="AD679" t="n">
+        <v>0.3573345431270242</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -61011,6 +63050,9 @@
       <c r="AC680" t="n">
         <v>31.40384654300437</v>
       </c>
+      <c r="AD680" t="n">
+        <v>0.3475089497297781</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -61100,6 +63142,9 @@
       <c r="AC681" t="n">
         <v>31.37861598525367</v>
       </c>
+      <c r="AD681" t="n">
+        <v>0.2231957809880261</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -61189,6 +63234,9 @@
       <c r="AC682" t="n">
         <v>31.3529275950561</v>
       </c>
+      <c r="AD682" t="n">
+        <v>0.3116261215632395</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -61278,6 +63326,9 @@
       <c r="AC683" t="n">
         <v>31.32677506331174</v>
       </c>
+      <c r="AD683" t="n">
+        <v>0.3296571307230795</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -61367,6 +63418,9 @@
       <c r="AC684" t="n">
         <v>31.30015190703532</v>
       </c>
+      <c r="AD684" t="n">
+        <v>0.3810109204939168</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -61456,6 +63510,9 @@
       <c r="AC685" t="n">
         <v>31.27305130379472</v>
       </c>
+      <c r="AD685" t="n">
+        <v>0.5143881244820641</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -61545,6 +63602,9 @@
       <c r="AC686" t="n">
         <v>31.24546639286418</v>
       </c>
+      <c r="AD686" t="n">
+        <v>0.3434855159235837</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -61634,6 +63694,9 @@
       <c r="AC687" t="n">
         <v>31.21738997952164</v>
       </c>
+      <c r="AD687" t="n">
+        <v>0.2736013561984916</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -61723,6 +63786,9 @@
       <c r="AC688" t="n">
         <v>31.1888153260262</v>
       </c>
+      <c r="AD688" t="n">
+        <v>0.4325206232656494</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -61812,6 +63878,9 @@
       <c r="AC689" t="n">
         <v>31.1597361577326</v>
       </c>
+      <c r="AD689" t="n">
+        <v>0.5130068670516003</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -61901,6 +63970,9 @@
       <c r="AC690" t="n">
         <v>31.13014654508653</v>
       </c>
+      <c r="AD690" t="n">
+        <v>0.5487553026032819</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -61990,6 +64062,9 @@
       <c r="AC691" t="n">
         <v>31.10004143825584</v>
       </c>
+      <c r="AD691" t="n">
+        <v>0.6594459472028179</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -62079,6 +64154,9 @@
       <c r="AC692" t="n">
         <v>31.06941633300513</v>
       </c>
+      <c r="AD692" t="n">
+        <v>0.7141540793426387</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -62168,6 +64246,9 @@
       <c r="AC693" t="n">
         <v>31.03826654366202</v>
       </c>
+      <c r="AD693" t="n">
+        <v>0.8868485894325323</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -62257,6 +64338,9 @@
       <c r="AC694" t="n">
         <v>31.00658720899374</v>
       </c>
+      <c r="AD694" t="n">
+        <v>0.8686607888886931</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -62346,6 +64430,9 @@
       <c r="AC695" t="n">
         <v>30.97437322298795</v>
       </c>
+      <c r="AD695" t="n">
+        <v>1.080329157286811</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -62435,6 +64522,9 @@
       <c r="AC696" t="n">
         <v>30.94161994372662</v>
       </c>
+      <c r="AD696" t="n">
+        <v>0.9392169116880658</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -62524,6 +64614,9 @@
       <c r="AC697" t="n">
         <v>30.90832326222208</v>
       </c>
+      <c r="AD697" t="n">
+        <v>0.8908966578921316</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -62613,6 +64706,9 @@
       <c r="AC698" t="n">
         <v>30.8744789898598</v>
       </c>
+      <c r="AD698" t="n">
+        <v>0.8750749818704545</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -62702,6 +64798,9 @@
       <c r="AC699" t="n">
         <v>30.84008261467257</v>
       </c>
+      <c r="AD699" t="n">
+        <v>0.968029873812485</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -62791,6 +64890,9 @@
       <c r="AC700" t="n">
         <v>30.80512942671227</v>
       </c>
+      <c r="AD700" t="n">
+        <v>1.046111983043791</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -62880,6 +64982,9 @@
       <c r="AC701" t="n">
         <v>30.76961446278796</v>
       </c>
+      <c r="AD701" t="n">
+        <v>1.079978921987489</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -62969,6 +65074,9 @@
       <c r="AC702" t="n">
         <v>30.73353205956728</v>
       </c>
+      <c r="AD702" t="n">
+        <v>1.275184195065753</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -63058,6 +65166,9 @@
       <c r="AC703" t="n">
         <v>30.69687616966328</v>
       </c>
+      <c r="AD703" t="n">
+        <v>1.354207052601051</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -63147,6 +65258,9 @@
       <c r="AC704" t="n">
         <v>30.65964098245541</v>
       </c>
+      <c r="AD704" t="n">
+        <v>1.341663741881162</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -63236,6 +65350,9 @@
       <c r="AC705" t="n">
         <v>30.62182133703308</v>
       </c>
+      <c r="AD705" t="n">
+        <v>1.345785115403411</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -63325,6 +65442,9 @@
       <c r="AC706" t="n">
         <v>30.58341207341044</v>
       </c>
+      <c r="AD706" t="n">
+        <v>1.296395829443851</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -63414,6 +65534,9 @@
       <c r="AC707" t="n">
         <v>30.54440697871854</v>
       </c>
+      <c r="AD707" t="n">
+        <v>1.342933330085756</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -63503,6 +65626,9 @@
       <c r="AC708" t="n">
         <v>30.5048000287482</v>
       </c>
+      <c r="AD708" t="n">
+        <v>1.289624259526229</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -63592,6 +65718,9 @@
       <c r="AC709" t="n">
         <v>30.46458587802439</v>
       </c>
+      <c r="AD709" t="n">
+        <v>1.24572267200662</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -63681,6 +65810,9 @@
       <c r="AC710" t="n">
         <v>30.4237586955252</v>
       </c>
+      <c r="AD710" t="n">
+        <v>1.233440680260063</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -63770,6 +65902,9 @@
       <c r="AC711" t="n">
         <v>30.3823122296742</v>
       </c>
+      <c r="AD711" t="n">
+        <v>1.221420007486836</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -63859,6 +65994,9 @@
       <c r="AC712" t="n">
         <v>30.3402404434135</v>
       </c>
+      <c r="AD712" t="n">
+        <v>1.200932599977685</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -63948,6 +66086,9 @@
       <c r="AC713" t="n">
         <v>30.29753774577071</v>
       </c>
+      <c r="AD713" t="n">
+        <v>1.126008717195493</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -64037,6 +66178,9 @@
       <c r="AC714" t="n">
         <v>30.25419837110781</v>
       </c>
+      <c r="AD714" t="n">
+        <v>1.021973022401124</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -64126,6 +66270,9 @@
       <c r="AC715" t="n">
         <v>30.21021664025339</v>
       </c>
+      <c r="AD715" t="n">
+        <v>0.9780714348815164</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -64215,6 +66362,9 @@
       <c r="AC716" t="n">
         <v>30.16558676086898</v>
       </c>
+      <c r="AD716" t="n">
+        <v>0.9834023419374678</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -64304,6 +66454,9 @@
       <c r="AC717" t="n">
         <v>30.12030301003568</v>
       </c>
+      <c r="AD717" t="n">
+        <v>0.9930786102070964</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -64393,6 +66546,9 @@
       <c r="AC718" t="n">
         <v>30.07436010046283</v>
       </c>
+      <c r="AD718" t="n">
+        <v>0.8170242847458049</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -64482,6 +66638,9 @@
       <c r="AC719" t="n">
         <v>30.02775360848819</v>
       </c>
+      <c r="AD719" t="n">
+        <v>0.6651979612404879</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -64571,6 +66730,9 @@
       <c r="AC720" t="n">
         <v>29.98048003969485</v>
       </c>
+      <c r="AD720" t="n">
+        <v>0.6752326098163992</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -64660,6 +66822,9 @@
       <c r="AC721" t="n">
         <v>29.93253666447819</v>
       </c>
+      <c r="AD721" t="n">
+        <v>0.4822936849250241</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -64749,6 +66914,9 @@
       <c r="AC722" t="n">
         <v>29.88392094455767</v>
       </c>
+      <c r="AD722" t="n">
+        <v>0.3861926274095709</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -64838,6 +67006,9 @@
       <c r="AC723" t="n">
         <v>29.83463030158928</v>
       </c>
+      <c r="AD723" t="n">
+        <v>0.2675911447991973</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -64927,6 +67098,9 @@
       <c r="AC724" t="n">
         <v>29.78466218301758</v>
       </c>
+      <c r="AD724" t="n">
+        <v>0.2604072486596243</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -65016,6 +67190,9 @@
       <c r="AC725" t="n">
         <v>29.73401425259314</v>
       </c>
+      <c r="AD725" t="n">
+        <v>0.08009715706122759</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -65105,6 +67282,9 @@
       <c r="AC726" t="n">
         <v>29.68268468030755</v>
       </c>
+      <c r="AD726" t="n">
+        <v>-0.06728674389746125</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -65194,6 +67374,9 @@
       <c r="AC727" t="n">
         <v>29.630672174608</v>
       </c>
+      <c r="AD727" t="n">
+        <v>-0.1567189203288744</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -65283,6 +67466,9 @@
       <c r="AC728" t="n">
         <v>29.57797643562714</v>
       </c>
+      <c r="AD728" t="n">
+        <v>-0.215301882895626</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -65372,6 +67558,9 @@
       <c r="AC729" t="n">
         <v>29.52459844096189</v>
       </c>
+      <c r="AD729" t="n">
+        <v>-0.2568515996552565</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -65461,6 +67650,9 @@
       <c r="AC730" t="n">
         <v>29.47053973339056</v>
       </c>
+      <c r="AD730" t="n">
+        <v>-0.05593464044561405</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -65550,6 +67742,9 @@
       <c r="AC731" t="n">
         <v>29.41580191898669</v>
       </c>
+      <c r="AD731" t="n">
+        <v>0.01744372726573337</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -65639,6 +67834,9 @@
       <c r="AC732" t="n">
         <v>29.36038681442983</v>
       </c>
+      <c r="AD732" t="n">
+        <v>-0.1648262566326459</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -65728,6 +67926,9 @@
       <c r="AC733" t="n">
         <v>29.30429654205504</v>
       </c>
+      <c r="AD733" t="n">
+        <v>-0.03218074576982533</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -65817,6 +68018,9 @@
       <c r="AC734" t="n">
         <v>29.24753369783333</v>
       </c>
+      <c r="AD734" t="n">
+        <v>-0.1222237977233105</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -65906,6 +68110,9 @@
       <c r="AC735" t="n">
         <v>29.19010115749245</v>
       </c>
+      <c r="AD735" t="n">
+        <v>-0.1868218479307361</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -65995,6 +68202,9 @@
       <c r="AC736" t="n">
         <v>29.1320020113734</v>
       </c>
+      <c r="AD736" t="n">
+        <v>0.001850450814252998</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -66084,6 +68294,9 @@
       <c r="AC737" t="n">
         <v>29.07323998772437</v>
       </c>
+      <c r="AD737" t="n">
+        <v>0.1188986274775595</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -66173,6 +68386,9 @@
       <c r="AC738" t="n">
         <v>29.01381955350126</v>
       </c>
+      <c r="AD738" t="n">
+        <v>0.1425598726991676</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -66262,6 +68478,9 @@
       <c r="AC739" t="n">
         <v>28.95374601902718</v>
       </c>
+      <c r="AD739" t="n">
+        <v>0.04129877053340158</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -66351,6 +68570,9 @@
       <c r="AC740" t="n">
         <v>28.89302574779633</v>
       </c>
+      <c r="AD740" t="n">
+        <v>0.005658882862949024</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -66440,6 +68662,9 @@
       <c r="AC741" t="n">
         <v>28.83166550214342</v>
       </c>
+      <c r="AD741" t="n">
+        <v>0.09165658135915392</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -66529,6 +68754,9 @@
       <c r="AC742" t="n">
         <v>28.76967205577821</v>
       </c>
+      <c r="AD742" t="n">
+        <v>0.1013253833724014</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -66618,6 +68846,9 @@
       <c r="AC743" t="n">
         <v>28.70705169584731</v>
       </c>
+      <c r="AD743" t="n">
+        <v>0.09998145722384197</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -66707,6 +68938,9 @@
       <c r="AC744" t="n">
         <v>28.64381113619472</v>
       </c>
+      <c r="AD744" t="n">
+        <v>0.2505011858625034</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -66796,6 +69030,9 @@
       <c r="AC745" t="n">
         <v>28.57995763956398</v>
       </c>
+      <c r="AD745" t="n">
+        <v>0.1492424593237679</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -66885,6 +69122,9 @@
       <c r="AC746" t="n">
         <v>28.51549904384096</v>
       </c>
+      <c r="AD746" t="n">
+        <v>0.1078495339481355</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -66974,6 +69214,9 @@
       <c r="AC747" t="n">
         <v>28.45044351654491</v>
       </c>
+      <c r="AD747" t="n">
+        <v>0.1101652220810381</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -67063,6 +69306,9 @@
       <c r="AC748" t="n">
         <v>28.38479918684678</v>
       </c>
+      <c r="AD748" t="n">
+        <v>0.1598904895777386</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
@@ -67152,6 +69398,9 @@
       <c r="AC749" t="n">
         <v>28.31857376884963</v>
       </c>
+      <c r="AD749" t="n">
+        <v>0.177294333201584</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -67241,6 +69490,9 @@
       <c r="AC750" t="n">
         <v>28.25177527047245</v>
       </c>
+      <c r="AD750" t="n">
+        <v>0.04025866358680276</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -67330,6 +69582,9 @@
       <c r="AC751" t="n">
         <v>28.18441220685801</v>
       </c>
+      <c r="AD751" t="n">
+        <v>0.2646271340888076</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -67419,6 +69674,9 @@
       <c r="AC752" t="n">
         <v>28.11649384729291</v>
       </c>
+      <c r="AD752" t="n">
+        <v>0.3486673159120598</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -67508,6 +69766,9 @@
       <c r="AC753" t="n">
         <v>28.04803010527213</v>
       </c>
+      <c r="AD753" t="n">
+        <v>0.4209481439354168</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -67597,6 +69858,9 @@
       <c r="AC754" t="n">
         <v>27.97903192520383</v>
       </c>
+      <c r="AD754" t="n">
+        <v>0.5646260667268671</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -67686,6 +69950,9 @@
       <c r="AC755" t="n">
         <v>27.90951053429269</v>
       </c>
+      <c r="AD755" t="n">
+        <v>0.6309608830339698</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -67775,6 +70042,9 @@
       <c r="AC756" t="n">
         <v>27.8394777586791</v>
       </c>
+      <c r="AD756" t="n">
+        <v>0.8384079449398166</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -67864,6 +70134,9 @@
       <c r="AC757" t="n">
         <v>27.76894625082167</v>
       </c>
+      <c r="AD757" t="n">
+        <v>1.164310035965491</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -67953,6 +70226,9 @@
       <c r="AC758" t="n">
         <v>27.69792882875737</v>
       </c>
+      <c r="AD758" t="n">
+        <v>1.301512678222972</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -68042,6 +70318,9 @@
       <c r="AC759" t="n">
         <v>27.62643766670065</v>
       </c>
+      <c r="AD759" t="n">
+        <v>1.320588963276135</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -68131,6 +70410,9 @@
       <c r="AC760" t="n">
         <v>27.55448482388188</v>
       </c>
+      <c r="AD760" t="n">
+        <v>1.068871595650946</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -68220,6 +70502,9 @@
       <c r="AC761" t="n">
         <v>27.48208325106758</v>
       </c>
+      <c r="AD761" t="n">
+        <v>0.9366964589401201</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -68309,6 +70594,9 @@
       <c r="AC762" t="n">
         <v>27.40924620266756</v>
       </c>
+      <c r="AD762" t="n">
+        <v>0.9463114599882702</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -68398,6 +70686,9 @@
       <c r="AC763" t="n">
         <v>27.3359871776192</v>
       </c>
+      <c r="AD763" t="n">
+        <v>0.8274635909173265</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -68487,6 +70778,9 @@
       <c r="AC764" t="n">
         <v>27.26232031189731</v>
       </c>
+      <c r="AD764" t="n">
+        <v>0.8328392955115653</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -68576,6 +70870,9 @@
       <c r="AC765" t="n">
         <v>27.18825981741377</v>
       </c>
+      <c r="AD765" t="n">
+        <v>1.034159432565775</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -68665,6 +70962,9 @@
       <c r="AC766" t="n">
         <v>27.1138207755055</v>
       </c>
+      <c r="AD766" t="n">
+        <v>0.838431521540849</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -68754,6 +71054,9 @@
       <c r="AC767" t="n">
         <v>27.03901936743216</v>
       </c>
+      <c r="AD767" t="n">
+        <v>0.7530613162533312</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -68843,6 +71146,9 @@
       <c r="AC768" t="n">
         <v>26.96387324864906</v>
       </c>
+      <c r="AD768" t="n">
+        <v>0.7426670342931455</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
@@ -68932,6 +71238,9 @@
       <c r="AC769" t="n">
         <v>26.88840112731265</v>
       </c>
+      <c r="AD769" t="n">
+        <v>0.8462277434242239</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
@@ -69021,6 +71330,9 @@
       <c r="AC770" t="n">
         <v>26.81262215202593</v>
       </c>
+      <c r="AD770" t="n">
+        <v>0.8506213481406676</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -69110,6 +71422,9 @@
       <c r="AC771" t="n">
         <v>26.73655602360505</v>
       </c>
+      <c r="AD771" t="n">
+        <v>0.8260336083772503</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -69199,6 +71514,9 @@
       <c r="AC772" t="n">
         <v>26.66022297704389</v>
       </c>
+      <c r="AD772" t="n">
+        <v>0.8508589108436958</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -69288,6 +71606,9 @@
       <c r="AC773" t="n">
         <v>26.58364303587588</v>
       </c>
+      <c r="AD773" t="n">
+        <v>0.8391172402825986</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -69377,6 +71698,9 @@
       <c r="AC774" t="n">
         <v>26.50683502416573</v>
       </c>
+      <c r="AD774" t="n">
+        <v>0.6531811049054272</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -69466,6 +71790,9 @@
       <c r="AC775" t="n">
         <v>26.4298169771024</v>
       </c>
+      <c r="AD775" t="n">
+        <v>0.6766713049808547</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -69555,6 +71882,9 @@
       <c r="AC776" t="n">
         <v>26.35260592851074</v>
       </c>
+      <c r="AD776" t="n">
+        <v>0.6548855547831539</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -69644,6 +71974,9 @@
       <c r="AC777" t="n">
         <v>26.27521914264819</v>
       </c>
+      <c r="AD777" t="n">
+        <v>0.6533620757483497</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
@@ -69733,6 +72066,9 @@
       <c r="AC778" t="n">
         <v>26.19767430390174</v>
       </c>
+      <c r="AD778" t="n">
+        <v>0.6372349619656361</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -69822,6 +72158,9 @@
       <c r="AC779" t="n">
         <v>26.11998984841563</v>
       </c>
+      <c r="AD779" t="n">
+        <v>0.6598129212614348</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -69911,6 +72250,9 @@
       <c r="AC780" t="n">
         <v>26.04218485763092</v>
       </c>
+      <c r="AD780" t="n">
+        <v>0.7224469530798252</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -70000,6 +72342,9 @@
       <c r="AC781" t="n">
         <v>25.96427890932662</v>
       </c>
+      <c r="AD781" t="n">
+        <v>0.5899582336010042</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -70089,6 +72434,9 @@
       <c r="AC782" t="n">
         <v>25.88629179411992</v>
       </c>
+      <c r="AD782" t="n">
+        <v>0.5808358258047216</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
@@ -70178,6 +72526,9 @@
       <c r="AC783" t="n">
         <v>25.80824262302501</v>
       </c>
+      <c r="AD783" t="n">
+        <v>0.7360144984250551</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -70267,6 +72618,9 @@
       <c r="AC784" t="n">
         <v>25.73015015385218</v>
       </c>
+      <c r="AD784" t="n">
+        <v>0.6286836691969189</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -70356,6 +72710,9 @@
       <c r="AC785" t="n">
         <v>25.65203333984467</v>
       </c>
+      <c r="AD785" t="n">
+        <v>0.592139215849552</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -70445,6 +72802,9 @@
       <c r="AC786" t="n">
         <v>25.57391039554933</v>
       </c>
+      <c r="AD786" t="n">
+        <v>0.6073359192217239</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -70534,6 +72894,9 @@
       <c r="AC787" t="n">
         <v>25.4957984618928</v>
       </c>
+      <c r="AD787" t="n">
+        <v>0.2489108154009114</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
@@ -70623,6 +72986,9 @@
       <c r="AC788" t="n">
         <v>25.41771482633601</v>
       </c>
+      <c r="AD788" t="n">
+        <v>0.1049613923774297</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -70712,6 +73078,9 @@
       <c r="AC789" t="n">
         <v>25.33967691182242</v>
       </c>
+      <c r="AD789" t="n">
+        <v>0.1204912056496727</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -70801,6 +73170,9 @@
       <c r="AC790" t="n">
         <v>25.26170193767756</v>
       </c>
+      <c r="AD790" t="n">
+        <v>0.1590618861133297</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
@@ -70890,6 +73262,9 @@
       <c r="AC791" t="n">
         <v>25.18380709972112</v>
       </c>
+      <c r="AD791" t="n">
+        <v>0.2437292334725765</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
@@ -70979,6 +73354,9 @@
       <c r="AC792" t="n">
         <v>25.10600974207113</v>
       </c>
+      <c r="AD792" t="n">
+        <v>0.4502511552665054</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
@@ -71068,6 +73446,9 @@
       <c r="AC793" t="n">
         <v>25.02832577523822</v>
       </c>
+      <c r="AD793" t="n">
+        <v>0.5016787292180481</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
@@ -71157,6 +73538,9 @@
       <c r="AC794" t="n">
         <v>24.95077003302821</v>
       </c>
+      <c r="AD794" t="n">
+        <v>0.6004573011371691</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
@@ -71246,6 +73630,9 @@
       <c r="AC795" t="n">
         <v>24.87335725096538</v>
       </c>
+      <c r="AD795" t="n">
+        <v>0.4179521301627915</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
@@ -71335,6 +73722,9 @@
       <c r="AC796" t="n">
         <v>24.7961024980581</v>
       </c>
+      <c r="AD796" t="n">
+        <v>0.6536095803126962</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
@@ -71424,6 +73814,9 @@
       <c r="AC797" t="n">
         <v>24.71902099572498</v>
       </c>
+      <c r="AD797" t="n">
+        <v>0.6597540215679769</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
@@ -71513,6 +73906,9 @@
       <c r="AC798" t="n">
         <v>24.64212827445649</v>
       </c>
+      <c r="AD798" t="n">
+        <v>0.6809811627862496</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -71602,6 +73998,9 @@
       <c r="AC799" t="n">
         <v>24.56543966908</v>
       </c>
+      <c r="AD799" t="n">
+        <v>0.7008936685540732</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
@@ -71691,6 +74090,9 @@
       <c r="AC800" t="n">
         <v>24.48897036625128</v>
       </c>
+      <c r="AD800" t="n">
+        <v>0.9340648553291424</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
@@ -71780,6 +74182,9 @@
       <c r="AC801" t="n">
         <v>24.41273528713936</v>
       </c>
+      <c r="AD801" t="n">
+        <v>0.963593899315546</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
@@ -71869,6 +74274,9 @@
       <c r="AC802" t="n">
         <v>24.33674818678637</v>
       </c>
+      <c r="AD802" t="n">
+        <v>1.116334839227521</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -71958,6 +74366,9 @@
       <c r="AC803" t="n">
         <v>24.26102225988851</v>
       </c>
+      <c r="AD803" t="n">
+        <v>1.285804569587736</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -72047,6 +74458,9 @@
       <c r="AC804" t="n">
         <v>24.18557014318719</v>
       </c>
+      <c r="AD804" t="n">
+        <v>1.443518255845158</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -72136,6 +74550,9 @@
       <c r="AC805" t="n">
         <v>24.11040361477561</v>
       </c>
+      <c r="AD805" t="n">
+        <v>1.521397458579524</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
@@ -72225,6 +74642,9 @@
       <c r="AC806" t="n">
         <v>24.03553432089494</v>
       </c>
+      <c r="AD806" t="n">
+        <v>1.691821440807903</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -72314,6 +74734,9 @@
       <c r="AC807" t="n">
         <v>23.96097379185264</v>
       </c>
+      <c r="AD807" t="n">
+        <v>1.909282838235864</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
@@ -72403,6 +74826,9 @@
       <c r="AC808" t="n">
         <v>23.88673303504738</v>
       </c>
+      <c r="AD808" t="n">
+        <v>1.958672124195425</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
@@ -72492,6 +74918,9 @@
       <c r="AC809" t="n">
         <v>23.81282272543725</v>
       </c>
+      <c r="AD809" t="n">
+        <v>2.030404182374788</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
@@ -72581,6 +75010,9 @@
       <c r="AC810" t="n">
         <v>23.73925290493817</v>
       </c>
+      <c r="AD810" t="n">
+        <v>2.101042826955211</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
@@ -72670,6 +75102,9 @@
       <c r="AC811" t="n">
         <v>23.66603332720094</v>
       </c>
+      <c r="AD811" t="n">
+        <v>2.191839292052586</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
@@ -72759,6 +75194,9 @@
       <c r="AC812" t="n">
         <v>23.59317370746796</v>
       </c>
+      <c r="AD812" t="n">
+        <v>2.22228532807268</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -72848,6 +75286,9 @@
       <c r="AC813" t="n">
         <v>23.52068356779107</v>
       </c>
+      <c r="AD813" t="n">
+        <v>2.133586202267753</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
@@ -72937,6 +75378,9 @@
       <c r="AC814" t="n">
         <v>23.44857159477887</v>
       </c>
+      <c r="AD814" t="n">
+        <v>2.314680250786143</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
@@ -73026,6 +75470,9 @@
       <c r="AC815" t="n">
         <v>23.37684559400912</v>
       </c>
+      <c r="AD815" t="n">
+        <v>2.382670696392811</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -73115,6 +75562,9 @@
       <c r="AC816" t="n">
         <v>23.30551262656984</v>
       </c>
+      <c r="AD816" t="n">
+        <v>2.232778133290144</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -73204,6 +75654,9 @@
       <c r="AC817" t="n">
         <v>23.23457939338798</v>
       </c>
+      <c r="AD817" t="n">
+        <v>2.262613293788164</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -73293,6 +75746,9 @@
       <c r="AC818" t="n">
         <v>23.16405229642085</v>
       </c>
+      <c r="AD818" t="n">
+        <v>2.282289075309558</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -73382,6 +75838,9 @@
       <c r="AC819" t="n">
         <v>23.09393737511027</v>
       </c>
+      <c r="AD819" t="n">
+        <v>2.228868010904318</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -73471,6 +75930,9 @@
       <c r="AC820" t="n">
         <v>23.02424083686261</v>
       </c>
+      <c r="AD820" t="n">
+        <v>2.179949099096754</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -73560,6 +76022,9 @@
       <c r="AC821" t="n">
         <v>22.95496863445765</v>
       </c>
+      <c r="AD821" t="n">
+        <v>2.229338385056315</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -73649,6 +76114,9 @@
       <c r="AC822" t="n">
         <v>22.88612590908343</v>
       </c>
+      <c r="AD822" t="n">
+        <v>2.08822613945757</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -73738,6 +76206,9 @@
       <c r="AC823" t="n">
         <v>22.81771732895221</v>
       </c>
+      <c r="AD823" t="n">
+        <v>2.011174373606827</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -73827,6 +76298,9 @@
       <c r="AC824" t="n">
         <v>22.74974695848719</v>
       </c>
+      <c r="AD824" t="n">
+        <v>1.914137928176578</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -73916,6 +76390,9 @@
       <c r="AC825" t="n">
         <v>22.68221713035363</v>
       </c>
+      <c r="AD825" t="n">
+        <v>1.860459936713526</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
@@ -74005,6 +76482,9 @@
       <c r="AC826" t="n">
         <v>22.61512897980473</v>
       </c>
+      <c r="AD826" t="n">
+        <v>1.698795958935271</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -74094,6 +76574,9 @@
       <c r="AC827" t="n">
         <v>22.54848323417293</v>
       </c>
+      <c r="AD827" t="n">
+        <v>1.637133465060189</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -74183,6 +76666,9 @@
       <c r="AC828" t="n">
         <v>22.48228053571491</v>
       </c>
+      <c r="AD828" t="n">
+        <v>1.711609372459528</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -74272,6 +76758,9 @@
       <c r="AC829" t="n">
         <v>22.4165215623289</v>
       </c>
+      <c r="AD829" t="n">
+        <v>1.670451634159893</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -74361,6 +76850,9 @@
       <c r="AC830" t="n">
         <v>22.35120685536667</v>
       </c>
+      <c r="AD830" t="n">
+        <v>1.513212274778434</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -74450,6 +76942,9 @@
       <c r="AC831" t="n">
         <v>22.2863368112137</v>
       </c>
+      <c r="AD831" t="n">
+        <v>1.457812652432259</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -74539,6 +77034,9 @@
       <c r="AC832" t="n">
         <v>22.2219116211128</v>
       </c>
+      <c r="AD832" t="n">
+        <v>1.240264607134194</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -74627,6 +77125,9 @@
       </c>
       <c r="AC833" t="n">
         <v>22.15793103218897</v>
+      </c>
+      <c r="AD833" t="n">
+        <v>1.034155205986936</v>
       </c>
     </row>
   </sheetData>
